--- a/Registro_acciones.xlsx
+++ b/Registro_acciones.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Actuaciones" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Actuaciones!$A$1:$H$58</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Actuaciones!$A$1:$I$58</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,8 +22,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Si, si, Sí, sí, SÍ, SI, s o S para determinarla como zona de actuación finalizada</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="33">
   <si>
     <t xml:space="preserve">ACCIONES DE VOLUNTARIADO</t>
   </si>
@@ -35,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">LUGAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ULTIMA</t>
   </si>
   <si>
     <t xml:space="preserve">Dificultad</t>
@@ -412,23 +439,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="36.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="36.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="10" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -442,7 +470,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
+      <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -460,6 +488,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -474,10 +503,10 @@
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -486,7 +515,9 @@
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -504,6 +535,7 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
@@ -513,10 +545,11 @@
         <v>43449</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="G3" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
@@ -526,10 +559,11 @@
         <v>43463</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="G4" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
@@ -539,10 +573,11 @@
         <v>43512</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="G5" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
@@ -552,10 +587,11 @@
         <v>43526</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="G6" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
@@ -563,7 +599,8 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
@@ -573,10 +610,11 @@
         <v>43540</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="G8" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
@@ -586,10 +624,11 @@
         <v>43554</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="G9" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
@@ -599,10 +638,11 @@
         <v>43582</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="G10" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
@@ -612,10 +652,11 @@
         <v>43596</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="G11" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
@@ -625,10 +666,11 @@
         <v>43610</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="G12" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
@@ -638,10 +680,11 @@
         <v>43624</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="G13" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
@@ -651,10 +694,11 @@
         <v>43638</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="G14" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
@@ -664,10 +708,11 @@
         <v>43673</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="G15" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
@@ -677,10 +722,11 @@
         <v>43680</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="G16" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
@@ -690,10 +736,11 @@
         <v>43694</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="G17" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
@@ -703,10 +750,11 @@
         <v>43700</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="G18" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
@@ -716,11 +764,12 @@
         <v>43701</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
@@ -730,10 +779,11 @@
         <v>43722</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="G20" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
@@ -743,10 +793,11 @@
         <v>43736</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="G21" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
@@ -756,10 +807,11 @@
         <v>43750</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="G22" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
@@ -769,10 +821,11 @@
         <v>43764</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="G23" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
@@ -782,10 +835,11 @@
         <v>43778</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="G24" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
@@ -795,10 +849,11 @@
         <v>43786</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="G25" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
@@ -808,10 +863,11 @@
         <v>43792</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="G26" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
@@ -821,10 +877,11 @@
         <v>43806</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="G27" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
@@ -834,11 +891,12 @@
         <v>43814</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="G28" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="F28" s="10"/>
       <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
@@ -848,11 +906,12 @@
         <v>43842</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="G29" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="F29" s="10"/>
       <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
@@ -862,14 +921,15 @@
         <v>43862</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="G30" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="10"/>
       <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
@@ -879,10 +939,11 @@
         <v>43876</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="G31" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="F31" s="10"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
@@ -892,13 +953,14 @@
         <v>43890</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="G32" s="11"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="n">
@@ -908,13 +970,13 @@
         <v>43904</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="16"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
@@ -935,6 +997,7 @@
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
     </row>
     <row r="34" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
@@ -944,13 +1007,13 @@
         <v>43981</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="10"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
@@ -971,6 +1034,7 @@
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
       <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
     </row>
     <row r="35" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
@@ -980,14 +1044,15 @@
         <v>43995</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="G35" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="10"/>
       <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
@@ -997,14 +1062,15 @@
         <v>44009</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="10"/>
       <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="n">
@@ -1014,14 +1080,15 @@
         <v>43993</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="11"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="n">
@@ -1031,13 +1098,14 @@
         <v>44048</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="G38" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="n">
@@ -1047,14 +1115,15 @@
         <v>44051</v>
       </c>
       <c r="C39" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="11"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="n">
@@ -1064,15 +1133,16 @@
         <v>44100</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="10"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
@@ -1082,13 +1152,14 @@
         <v>44135</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="G41" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
@@ -1098,13 +1169,14 @@
         <v>44149</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="G42" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="18" t="n">
@@ -1114,13 +1186,14 @@
         <v>44156</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="G43" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="H43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="19" t="n">
@@ -1130,13 +1203,14 @@
         <v>44177</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="G44" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="H44" s="11"/>
     </row>
     <row r="45" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="19" t="n">
@@ -1146,13 +1220,14 @@
         <v>44198</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="G45" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="19" t="n">
@@ -1162,13 +1237,14 @@
         <v>44212</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="G46" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="H46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="19" t="n">
@@ -1178,13 +1254,14 @@
         <v>44226</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="10"/>
-      <c r="G47" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="H47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="19" t="n">
@@ -1194,13 +1271,14 @@
         <v>44240</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="10"/>
-      <c r="G48" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="19" t="n">
@@ -1210,13 +1288,14 @@
         <v>44254</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="10"/>
-      <c r="G49" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="19" t="n">
@@ -1226,13 +1305,14 @@
         <v>44268</v>
       </c>
       <c r="C50" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="10"/>
-      <c r="G50" s="11"/>
+      <c r="F50" s="10"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="19" t="n">
@@ -1242,14 +1322,15 @@
         <v>44296</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="G51" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="10"/>
       <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="19" t="n">
@@ -1259,13 +1340,14 @@
         <v>44317</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="G52" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="H52" s="11"/>
     </row>
     <row r="53" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="19" t="n">
@@ -1275,13 +1357,14 @@
         <v>44331</v>
       </c>
       <c r="C53" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="G53" s="11"/>
+      <c r="F53" s="10"/>
+      <c r="H53" s="11"/>
     </row>
     <row r="54" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="19" t="n">
@@ -1291,13 +1374,14 @@
         <v>44345</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" s="10"/>
-      <c r="G54" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="H54" s="11"/>
     </row>
     <row r="55" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="19" t="n">
@@ -1307,13 +1391,14 @@
         <v>44359</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="G55" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="H55" s="11"/>
     </row>
     <row r="56" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="19" t="n">
@@ -1323,13 +1408,14 @@
         <v>44387</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" s="10"/>
-      <c r="G56" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="19" t="n">
@@ -1339,4735 +1425,4736 @@
         <v>44408</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="G57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="19" t="n">
         <v>53</v>
       </c>
       <c r="B58" s="8"/>
-      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="19"/>
       <c r="B59" s="8"/>
-      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="19"/>
       <c r="B60" s="8"/>
-      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="19"/>
       <c r="B61" s="8"/>
-      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="19"/>
       <c r="B62" s="8"/>
-      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="19"/>
       <c r="B63" s="8"/>
-      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="19"/>
       <c r="B64" s="8"/>
-      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
     </row>
     <row r="65" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="19"/>
       <c r="B65" s="8"/>
-      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="19"/>
       <c r="B66" s="8"/>
-      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
     </row>
     <row r="67" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="19"/>
       <c r="B67" s="8"/>
-      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
     </row>
     <row r="68" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="19"/>
       <c r="B68" s="8"/>
-      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
     </row>
     <row r="69" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="19"/>
       <c r="B69" s="8"/>
-      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="19"/>
       <c r="B70" s="8"/>
-      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
     </row>
     <row r="71" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="19"/>
       <c r="B71" s="8"/>
-      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
     </row>
     <row r="72" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="19"/>
       <c r="B72" s="8"/>
-      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
     </row>
     <row r="73" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="19"/>
       <c r="B73" s="8"/>
-      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
     </row>
     <row r="74" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="19"/>
       <c r="B74" s="8"/>
-      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
     </row>
     <row r="75" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="19"/>
       <c r="B75" s="8"/>
-      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
     </row>
     <row r="76" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="19"/>
       <c r="B76" s="8"/>
-      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
     </row>
     <row r="77" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="19"/>
       <c r="B77" s="8"/>
-      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
     </row>
     <row r="78" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="19"/>
       <c r="B78" s="8"/>
-      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="19"/>
       <c r="B79" s="8"/>
-      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
     </row>
     <row r="80" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="19"/>
       <c r="B80" s="8"/>
-      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
     </row>
     <row r="81" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="19"/>
       <c r="B81" s="8"/>
-      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
     </row>
     <row r="82" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="19"/>
       <c r="B82" s="8"/>
-      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
     </row>
     <row r="83" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="19"/>
       <c r="B83" s="8"/>
-      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
     </row>
     <row r="84" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="19"/>
       <c r="B84" s="8"/>
-      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
     </row>
     <row r="85" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="19"/>
       <c r="B85" s="8"/>
-      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
     </row>
     <row r="86" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="19"/>
       <c r="B86" s="8"/>
-      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
     </row>
     <row r="87" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="19"/>
       <c r="B87" s="8"/>
-      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="19"/>
       <c r="B88" s="8"/>
-      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
     </row>
     <row r="89" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="19"/>
       <c r="B89" s="8"/>
-      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
     </row>
     <row r="90" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="19"/>
       <c r="B90" s="8"/>
-      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
     </row>
     <row r="91" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="19"/>
       <c r="B91" s="8"/>
-      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
     </row>
     <row r="92" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="19"/>
       <c r="B92" s="8"/>
-      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
     </row>
     <row r="93" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="19"/>
       <c r="B93" s="8"/>
-      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
     </row>
     <row r="94" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="19"/>
       <c r="B94" s="8"/>
-      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
     </row>
     <row r="95" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="19"/>
       <c r="B95" s="8"/>
-      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
     </row>
     <row r="96" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="19"/>
       <c r="B96" s="8"/>
-      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
     </row>
     <row r="97" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="19"/>
       <c r="B97" s="8"/>
-      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
     </row>
     <row r="98" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="19"/>
       <c r="B98" s="8"/>
-      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
     </row>
     <row r="99" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="19"/>
       <c r="B99" s="8"/>
-      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
     </row>
     <row r="100" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="19"/>
       <c r="B100" s="8"/>
-      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
     </row>
     <row r="101" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="19"/>
       <c r="B101" s="8"/>
-      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
     </row>
     <row r="102" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="19"/>
       <c r="B102" s="8"/>
-      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
     </row>
     <row r="103" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="19"/>
       <c r="B103" s="8"/>
-      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
     </row>
     <row r="104" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="19"/>
       <c r="B104" s="8"/>
-      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
     </row>
     <row r="105" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="19"/>
       <c r="B105" s="8"/>
-      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
     </row>
     <row r="106" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="19"/>
       <c r="B106" s="8"/>
-      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
     </row>
     <row r="107" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="19"/>
       <c r="B107" s="8"/>
-      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
     </row>
     <row r="108" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="19"/>
       <c r="B108" s="8"/>
-      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
     </row>
     <row r="109" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="19"/>
       <c r="B109" s="8"/>
-      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
     </row>
     <row r="110" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="19"/>
       <c r="B110" s="8"/>
-      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
     </row>
     <row r="111" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="19"/>
       <c r="B111" s="8"/>
-      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
     </row>
     <row r="112" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="19"/>
       <c r="B112" s="8"/>
-      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
     </row>
     <row r="113" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="19"/>
       <c r="B113" s="8"/>
-      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
     </row>
     <row r="114" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="19"/>
       <c r="B114" s="8"/>
-      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
     </row>
     <row r="115" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="19"/>
       <c r="B115" s="8"/>
-      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
     </row>
     <row r="116" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="19"/>
       <c r="B116" s="8"/>
-      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
     </row>
     <row r="117" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="19"/>
       <c r="B117" s="8"/>
-      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
     </row>
     <row r="118" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="19"/>
       <c r="B118" s="8"/>
-      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
     </row>
     <row r="119" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="19"/>
       <c r="B119" s="8"/>
-      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
     </row>
     <row r="120" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="19"/>
       <c r="B120" s="8"/>
-      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
     </row>
     <row r="121" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="19"/>
       <c r="B121" s="8"/>
-      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
     </row>
     <row r="122" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="19"/>
       <c r="B122" s="8"/>
-      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
     </row>
     <row r="123" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="19"/>
       <c r="B123" s="8"/>
-      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
     </row>
     <row r="124" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="19"/>
       <c r="B124" s="8"/>
-      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
     </row>
     <row r="125" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="19"/>
       <c r="B125" s="8"/>
-      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
     </row>
     <row r="126" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="19"/>
       <c r="B126" s="8"/>
-      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
     </row>
     <row r="127" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="19"/>
       <c r="B127" s="8"/>
-      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
     </row>
     <row r="128" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="19"/>
       <c r="B128" s="8"/>
-      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
     </row>
     <row r="129" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="19"/>
       <c r="B129" s="8"/>
-      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
     </row>
     <row r="130" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="19"/>
       <c r="B130" s="8"/>
-      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
     </row>
     <row r="131" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="19"/>
       <c r="B131" s="8"/>
-      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
     </row>
     <row r="132" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="19"/>
       <c r="B132" s="8"/>
-      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
     </row>
     <row r="133" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="19"/>
       <c r="B133" s="8"/>
-      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
     </row>
     <row r="134" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="19"/>
       <c r="B134" s="8"/>
-      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
     </row>
     <row r="135" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="19"/>
       <c r="B135" s="8"/>
-      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
     </row>
     <row r="136" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="19"/>
       <c r="B136" s="8"/>
-      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
     </row>
     <row r="137" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="19"/>
       <c r="B137" s="8"/>
-      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
     </row>
     <row r="138" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="19"/>
       <c r="B138" s="8"/>
-      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
     </row>
     <row r="139" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="19"/>
       <c r="B139" s="8"/>
-      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
     </row>
     <row r="140" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="19"/>
       <c r="B140" s="8"/>
-      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
     </row>
     <row r="141" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="19"/>
       <c r="B141" s="8"/>
-      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
     </row>
     <row r="142" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="19"/>
       <c r="B142" s="8"/>
-      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
     </row>
     <row r="143" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="19"/>
       <c r="B143" s="8"/>
-      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
     </row>
     <row r="144" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="19"/>
       <c r="B144" s="8"/>
-      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
     </row>
     <row r="145" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="19"/>
       <c r="B145" s="8"/>
-      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
     </row>
     <row r="146" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="19"/>
       <c r="B146" s="8"/>
-      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
     </row>
     <row r="147" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="19"/>
       <c r="B147" s="8"/>
-      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
     </row>
     <row r="148" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="19"/>
       <c r="B148" s="8"/>
-      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
     </row>
     <row r="149" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="19"/>
       <c r="B149" s="8"/>
-      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
     </row>
     <row r="150" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="19"/>
       <c r="B150" s="8"/>
-      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
     </row>
     <row r="151" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="19"/>
       <c r="B151" s="8"/>
-      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
     </row>
     <row r="152" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="19"/>
       <c r="B152" s="8"/>
-      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
     </row>
     <row r="153" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="19"/>
       <c r="B153" s="8"/>
-      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
     </row>
     <row r="154" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="19"/>
       <c r="B154" s="8"/>
-      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
     </row>
     <row r="155" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="19"/>
       <c r="B155" s="8"/>
-      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
     </row>
     <row r="156" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="19"/>
       <c r="B156" s="8"/>
-      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
     </row>
     <row r="157" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="19"/>
       <c r="B157" s="8"/>
-      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
     </row>
     <row r="158" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="19"/>
       <c r="B158" s="8"/>
-      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
     </row>
     <row r="159" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="19"/>
       <c r="B159" s="8"/>
-      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
     </row>
     <row r="160" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="19"/>
       <c r="B160" s="8"/>
-      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
     </row>
     <row r="161" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="19"/>
       <c r="B161" s="8"/>
-      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
     </row>
     <row r="162" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="19"/>
       <c r="B162" s="8"/>
-      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
     </row>
     <row r="163" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="19"/>
       <c r="B163" s="8"/>
-      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
     </row>
     <row r="164" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="19"/>
       <c r="B164" s="8"/>
-      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
     </row>
     <row r="165" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="19"/>
       <c r="B165" s="8"/>
-      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
     </row>
     <row r="166" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="19"/>
       <c r="B166" s="8"/>
-      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
     </row>
     <row r="167" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="19"/>
       <c r="B167" s="8"/>
-      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
     </row>
     <row r="168" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="19"/>
       <c r="B168" s="8"/>
-      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
     </row>
     <row r="169" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="19"/>
       <c r="B169" s="8"/>
-      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
     </row>
     <row r="170" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="19"/>
       <c r="B170" s="8"/>
-      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
     </row>
     <row r="171" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="19"/>
       <c r="B171" s="8"/>
-      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
     </row>
     <row r="172" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="19"/>
       <c r="B172" s="8"/>
-      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
     </row>
     <row r="173" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="19"/>
       <c r="B173" s="8"/>
-      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
     </row>
     <row r="174" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="19"/>
       <c r="B174" s="8"/>
-      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
     </row>
     <row r="175" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="19"/>
       <c r="B175" s="8"/>
-      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
     </row>
     <row r="176" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="19"/>
       <c r="B176" s="8"/>
-      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
     </row>
     <row r="177" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="19"/>
       <c r="B177" s="8"/>
-      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
     </row>
     <row r="178" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="19"/>
       <c r="B178" s="8"/>
-      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
     </row>
     <row r="179" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="19"/>
       <c r="B179" s="8"/>
-      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
     </row>
     <row r="180" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="19"/>
       <c r="B180" s="8"/>
-      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
     </row>
     <row r="181" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="19"/>
       <c r="B181" s="8"/>
-      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
     </row>
     <row r="182" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="19"/>
       <c r="B182" s="8"/>
-      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
     </row>
     <row r="183" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="19"/>
       <c r="B183" s="8"/>
-      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
     </row>
     <row r="184" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="19"/>
       <c r="B184" s="8"/>
-      <c r="E184" s="10"/>
+      <c r="F184" s="10"/>
     </row>
     <row r="185" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="19"/>
       <c r="B185" s="8"/>
-      <c r="E185" s="10"/>
+      <c r="F185" s="10"/>
     </row>
     <row r="186" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="19"/>
       <c r="B186" s="8"/>
-      <c r="E186" s="10"/>
+      <c r="F186" s="10"/>
     </row>
     <row r="187" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="19"/>
       <c r="B187" s="8"/>
-      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
     </row>
     <row r="188" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="19"/>
       <c r="B188" s="8"/>
-      <c r="E188" s="10"/>
+      <c r="F188" s="10"/>
     </row>
     <row r="189" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="19"/>
       <c r="B189" s="8"/>
-      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
     </row>
     <row r="190" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="19"/>
       <c r="B190" s="8"/>
-      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
     </row>
     <row r="191" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="19"/>
       <c r="B191" s="8"/>
-      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
     </row>
     <row r="192" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="19"/>
       <c r="B192" s="8"/>
-      <c r="E192" s="10"/>
+      <c r="F192" s="10"/>
     </row>
     <row r="193" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="19"/>
       <c r="B193" s="8"/>
-      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
     </row>
     <row r="194" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="19"/>
       <c r="B194" s="8"/>
-      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
     </row>
     <row r="195" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="19"/>
       <c r="B195" s="8"/>
-      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
     </row>
     <row r="196" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="19"/>
       <c r="B196" s="8"/>
-      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
     </row>
     <row r="197" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="19"/>
       <c r="B197" s="8"/>
-      <c r="E197" s="10"/>
+      <c r="F197" s="10"/>
     </row>
     <row r="198" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="19"/>
       <c r="B198" s="8"/>
-      <c r="E198" s="10"/>
+      <c r="F198" s="10"/>
     </row>
     <row r="199" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="19"/>
       <c r="B199" s="8"/>
-      <c r="E199" s="10"/>
+      <c r="F199" s="10"/>
     </row>
     <row r="200" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="19"/>
       <c r="B200" s="8"/>
-      <c r="E200" s="10"/>
+      <c r="F200" s="10"/>
     </row>
     <row r="201" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="19"/>
       <c r="B201" s="8"/>
-      <c r="E201" s="10"/>
+      <c r="F201" s="10"/>
     </row>
     <row r="202" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="19"/>
       <c r="B202" s="8"/>
-      <c r="E202" s="10"/>
+      <c r="F202" s="10"/>
     </row>
     <row r="203" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="19"/>
       <c r="B203" s="8"/>
-      <c r="E203" s="10"/>
+      <c r="F203" s="10"/>
     </row>
     <row r="204" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="19"/>
       <c r="B204" s="8"/>
-      <c r="E204" s="10"/>
+      <c r="F204" s="10"/>
     </row>
     <row r="205" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="19"/>
       <c r="B205" s="8"/>
-      <c r="E205" s="10"/>
+      <c r="F205" s="10"/>
     </row>
     <row r="206" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="19"/>
       <c r="B206" s="8"/>
-      <c r="E206" s="10"/>
+      <c r="F206" s="10"/>
     </row>
     <row r="207" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="19"/>
       <c r="B207" s="8"/>
-      <c r="E207" s="10"/>
+      <c r="F207" s="10"/>
     </row>
     <row r="208" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="19"/>
       <c r="B208" s="8"/>
-      <c r="E208" s="10"/>
+      <c r="F208" s="10"/>
     </row>
     <row r="209" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="19"/>
       <c r="B209" s="8"/>
-      <c r="E209" s="10"/>
+      <c r="F209" s="10"/>
     </row>
     <row r="210" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="19"/>
       <c r="B210" s="8"/>
-      <c r="E210" s="10"/>
+      <c r="F210" s="10"/>
     </row>
     <row r="211" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="19"/>
       <c r="B211" s="8"/>
-      <c r="E211" s="10"/>
+      <c r="F211" s="10"/>
     </row>
     <row r="212" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="19"/>
       <c r="B212" s="8"/>
-      <c r="E212" s="10"/>
+      <c r="F212" s="10"/>
     </row>
     <row r="213" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="19"/>
       <c r="B213" s="8"/>
-      <c r="E213" s="10"/>
+      <c r="F213" s="10"/>
     </row>
     <row r="214" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="19"/>
       <c r="B214" s="8"/>
-      <c r="E214" s="10"/>
+      <c r="F214" s="10"/>
     </row>
     <row r="215" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="19"/>
       <c r="B215" s="8"/>
-      <c r="E215" s="10"/>
+      <c r="F215" s="10"/>
     </row>
     <row r="216" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="19"/>
       <c r="B216" s="8"/>
-      <c r="E216" s="10"/>
+      <c r="F216" s="10"/>
     </row>
     <row r="217" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="19"/>
       <c r="B217" s="8"/>
-      <c r="E217" s="10"/>
+      <c r="F217" s="10"/>
     </row>
     <row r="218" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="19"/>
       <c r="B218" s="8"/>
-      <c r="E218" s="10"/>
+      <c r="F218" s="10"/>
     </row>
     <row r="219" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="19"/>
       <c r="B219" s="8"/>
-      <c r="E219" s="10"/>
+      <c r="F219" s="10"/>
     </row>
     <row r="220" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="19"/>
       <c r="B220" s="8"/>
-      <c r="E220" s="10"/>
+      <c r="F220" s="10"/>
     </row>
     <row r="221" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="19"/>
       <c r="B221" s="8"/>
-      <c r="E221" s="10"/>
+      <c r="F221" s="10"/>
     </row>
     <row r="222" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="19"/>
       <c r="B222" s="8"/>
-      <c r="E222" s="10"/>
+      <c r="F222" s="10"/>
     </row>
     <row r="223" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="19"/>
       <c r="B223" s="8"/>
-      <c r="E223" s="10"/>
+      <c r="F223" s="10"/>
     </row>
     <row r="224" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="19"/>
       <c r="B224" s="8"/>
-      <c r="E224" s="10"/>
+      <c r="F224" s="10"/>
     </row>
     <row r="225" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="19"/>
       <c r="B225" s="8"/>
-      <c r="E225" s="10"/>
+      <c r="F225" s="10"/>
     </row>
     <row r="226" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="19"/>
       <c r="B226" s="8"/>
-      <c r="E226" s="10"/>
+      <c r="F226" s="10"/>
     </row>
     <row r="227" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="19"/>
       <c r="B227" s="8"/>
-      <c r="E227" s="10"/>
+      <c r="F227" s="10"/>
     </row>
     <row r="228" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="19"/>
       <c r="B228" s="8"/>
-      <c r="E228" s="10"/>
+      <c r="F228" s="10"/>
     </row>
     <row r="229" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="19"/>
       <c r="B229" s="8"/>
-      <c r="E229" s="10"/>
+      <c r="F229" s="10"/>
     </row>
     <row r="230" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="19"/>
       <c r="B230" s="8"/>
-      <c r="E230" s="10"/>
+      <c r="F230" s="10"/>
     </row>
     <row r="231" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="19"/>
       <c r="B231" s="8"/>
-      <c r="E231" s="10"/>
+      <c r="F231" s="10"/>
     </row>
     <row r="232" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="19"/>
       <c r="B232" s="8"/>
-      <c r="E232" s="10"/>
+      <c r="F232" s="10"/>
     </row>
     <row r="233" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="19"/>
       <c r="B233" s="8"/>
-      <c r="E233" s="10"/>
+      <c r="F233" s="10"/>
     </row>
     <row r="234" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="19"/>
       <c r="B234" s="8"/>
-      <c r="E234" s="10"/>
+      <c r="F234" s="10"/>
     </row>
     <row r="235" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="19"/>
       <c r="B235" s="8"/>
-      <c r="E235" s="10"/>
+      <c r="F235" s="10"/>
     </row>
     <row r="236" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="19"/>
       <c r="B236" s="8"/>
-      <c r="E236" s="10"/>
+      <c r="F236" s="10"/>
     </row>
     <row r="237" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="19"/>
       <c r="B237" s="8"/>
-      <c r="E237" s="10"/>
+      <c r="F237" s="10"/>
     </row>
     <row r="238" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="19"/>
       <c r="B238" s="8"/>
-      <c r="E238" s="10"/>
+      <c r="F238" s="10"/>
     </row>
     <row r="239" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="19"/>
       <c r="B239" s="8"/>
-      <c r="E239" s="10"/>
+      <c r="F239" s="10"/>
     </row>
     <row r="240" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="19"/>
       <c r="B240" s="8"/>
-      <c r="E240" s="10"/>
+      <c r="F240" s="10"/>
     </row>
     <row r="241" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="19"/>
       <c r="B241" s="8"/>
-      <c r="E241" s="10"/>
+      <c r="F241" s="10"/>
     </row>
     <row r="242" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="19"/>
       <c r="B242" s="8"/>
-      <c r="E242" s="10"/>
+      <c r="F242" s="10"/>
     </row>
     <row r="243" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="19"/>
       <c r="B243" s="8"/>
-      <c r="E243" s="10"/>
+      <c r="F243" s="10"/>
     </row>
     <row r="244" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="19"/>
       <c r="B244" s="8"/>
-      <c r="E244" s="10"/>
+      <c r="F244" s="10"/>
     </row>
     <row r="245" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="19"/>
       <c r="B245" s="8"/>
-      <c r="E245" s="10"/>
+      <c r="F245" s="10"/>
     </row>
     <row r="246" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="19"/>
       <c r="B246" s="8"/>
-      <c r="E246" s="10"/>
+      <c r="F246" s="10"/>
     </row>
     <row r="247" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="19"/>
       <c r="B247" s="8"/>
-      <c r="E247" s="10"/>
+      <c r="F247" s="10"/>
     </row>
     <row r="248" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="19"/>
       <c r="B248" s="8"/>
-      <c r="E248" s="10"/>
+      <c r="F248" s="10"/>
     </row>
     <row r="249" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="19"/>
       <c r="B249" s="8"/>
-      <c r="E249" s="10"/>
+      <c r="F249" s="10"/>
     </row>
     <row r="250" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="19"/>
       <c r="B250" s="8"/>
-      <c r="E250" s="10"/>
+      <c r="F250" s="10"/>
     </row>
     <row r="251" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="19"/>
       <c r="B251" s="8"/>
-      <c r="E251" s="10"/>
+      <c r="F251" s="10"/>
     </row>
     <row r="252" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="19"/>
       <c r="B252" s="8"/>
-      <c r="E252" s="10"/>
+      <c r="F252" s="10"/>
     </row>
     <row r="253" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="19"/>
       <c r="B253" s="8"/>
-      <c r="E253" s="10"/>
+      <c r="F253" s="10"/>
     </row>
     <row r="254" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="19"/>
       <c r="B254" s="8"/>
-      <c r="E254" s="10"/>
+      <c r="F254" s="10"/>
     </row>
     <row r="255" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="19"/>
       <c r="B255" s="8"/>
-      <c r="E255" s="10"/>
+      <c r="F255" s="10"/>
     </row>
     <row r="256" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="19"/>
       <c r="B256" s="8"/>
-      <c r="E256" s="10"/>
+      <c r="F256" s="10"/>
     </row>
     <row r="257" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="19"/>
       <c r="B257" s="8"/>
-      <c r="E257" s="10"/>
+      <c r="F257" s="10"/>
     </row>
     <row r="258" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="19"/>
       <c r="B258" s="8"/>
-      <c r="E258" s="10"/>
+      <c r="F258" s="10"/>
     </row>
     <row r="259" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="19"/>
       <c r="B259" s="8"/>
-      <c r="E259" s="10"/>
+      <c r="F259" s="10"/>
     </row>
     <row r="260" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="19"/>
       <c r="B260" s="8"/>
-      <c r="E260" s="10"/>
+      <c r="F260" s="10"/>
     </row>
     <row r="261" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="19"/>
       <c r="B261" s="8"/>
-      <c r="E261" s="10"/>
+      <c r="F261" s="10"/>
     </row>
     <row r="262" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="19"/>
       <c r="B262" s="8"/>
-      <c r="E262" s="10"/>
+      <c r="F262" s="10"/>
     </row>
     <row r="263" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="19"/>
       <c r="B263" s="8"/>
-      <c r="E263" s="10"/>
+      <c r="F263" s="10"/>
     </row>
     <row r="264" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="19"/>
       <c r="B264" s="8"/>
-      <c r="E264" s="10"/>
+      <c r="F264" s="10"/>
     </row>
     <row r="265" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="19"/>
       <c r="B265" s="8"/>
-      <c r="E265" s="10"/>
+      <c r="F265" s="10"/>
     </row>
     <row r="266" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="19"/>
       <c r="B266" s="8"/>
-      <c r="E266" s="10"/>
+      <c r="F266" s="10"/>
     </row>
     <row r="267" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="19"/>
       <c r="B267" s="8"/>
-      <c r="E267" s="10"/>
+      <c r="F267" s="10"/>
     </row>
     <row r="268" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="19"/>
       <c r="B268" s="8"/>
-      <c r="E268" s="10"/>
+      <c r="F268" s="10"/>
     </row>
     <row r="269" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="19"/>
       <c r="B269" s="8"/>
-      <c r="E269" s="10"/>
+      <c r="F269" s="10"/>
     </row>
     <row r="270" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="19"/>
       <c r="B270" s="8"/>
-      <c r="E270" s="10"/>
+      <c r="F270" s="10"/>
     </row>
     <row r="271" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="19"/>
       <c r="B271" s="8"/>
-      <c r="E271" s="10"/>
+      <c r="F271" s="10"/>
     </row>
     <row r="272" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="19"/>
       <c r="B272" s="8"/>
-      <c r="E272" s="10"/>
+      <c r="F272" s="10"/>
     </row>
     <row r="273" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="19"/>
       <c r="B273" s="8"/>
-      <c r="E273" s="10"/>
+      <c r="F273" s="10"/>
     </row>
     <row r="274" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="19"/>
       <c r="B274" s="8"/>
-      <c r="E274" s="10"/>
+      <c r="F274" s="10"/>
     </row>
     <row r="275" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="19"/>
       <c r="B275" s="8"/>
-      <c r="E275" s="10"/>
+      <c r="F275" s="10"/>
     </row>
     <row r="276" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="19"/>
       <c r="B276" s="8"/>
-      <c r="E276" s="10"/>
+      <c r="F276" s="10"/>
     </row>
     <row r="277" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="19"/>
       <c r="B277" s="8"/>
-      <c r="E277" s="10"/>
+      <c r="F277" s="10"/>
     </row>
     <row r="278" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="19"/>
       <c r="B278" s="8"/>
-      <c r="E278" s="10"/>
+      <c r="F278" s="10"/>
     </row>
     <row r="279" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="19"/>
       <c r="B279" s="8"/>
-      <c r="E279" s="10"/>
+      <c r="F279" s="10"/>
     </row>
     <row r="280" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="19"/>
       <c r="B280" s="8"/>
-      <c r="E280" s="10"/>
+      <c r="F280" s="10"/>
     </row>
     <row r="281" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="19"/>
       <c r="B281" s="8"/>
-      <c r="E281" s="10"/>
+      <c r="F281" s="10"/>
     </row>
     <row r="282" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="19"/>
       <c r="B282" s="8"/>
-      <c r="E282" s="10"/>
+      <c r="F282" s="10"/>
     </row>
     <row r="283" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="19"/>
       <c r="B283" s="8"/>
-      <c r="E283" s="10"/>
+      <c r="F283" s="10"/>
     </row>
     <row r="284" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="19"/>
       <c r="B284" s="8"/>
-      <c r="E284" s="10"/>
+      <c r="F284" s="10"/>
     </row>
     <row r="285" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="19"/>
       <c r="B285" s="8"/>
-      <c r="E285" s="10"/>
+      <c r="F285" s="10"/>
     </row>
     <row r="286" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="19"/>
       <c r="B286" s="8"/>
-      <c r="E286" s="10"/>
+      <c r="F286" s="10"/>
     </row>
     <row r="287" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="19"/>
       <c r="B287" s="8"/>
-      <c r="E287" s="10"/>
+      <c r="F287" s="10"/>
     </row>
     <row r="288" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="19"/>
       <c r="B288" s="8"/>
-      <c r="E288" s="10"/>
+      <c r="F288" s="10"/>
     </row>
     <row r="289" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="19"/>
       <c r="B289" s="8"/>
-      <c r="E289" s="10"/>
+      <c r="F289" s="10"/>
     </row>
     <row r="290" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="19"/>
       <c r="B290" s="8"/>
-      <c r="E290" s="10"/>
+      <c r="F290" s="10"/>
     </row>
     <row r="291" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="19"/>
       <c r="B291" s="8"/>
-      <c r="E291" s="10"/>
+      <c r="F291" s="10"/>
     </row>
     <row r="292" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="19"/>
       <c r="B292" s="8"/>
-      <c r="E292" s="10"/>
+      <c r="F292" s="10"/>
     </row>
     <row r="293" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="19"/>
       <c r="B293" s="8"/>
-      <c r="E293" s="10"/>
+      <c r="F293" s="10"/>
     </row>
     <row r="294" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="19"/>
       <c r="B294" s="8"/>
-      <c r="E294" s="10"/>
+      <c r="F294" s="10"/>
     </row>
     <row r="295" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="19"/>
       <c r="B295" s="8"/>
-      <c r="E295" s="10"/>
+      <c r="F295" s="10"/>
     </row>
     <row r="296" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="19"/>
       <c r="B296" s="8"/>
-      <c r="E296" s="10"/>
+      <c r="F296" s="10"/>
     </row>
     <row r="297" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="19"/>
       <c r="B297" s="8"/>
-      <c r="E297" s="10"/>
+      <c r="F297" s="10"/>
     </row>
     <row r="298" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="19"/>
       <c r="B298" s="8"/>
-      <c r="E298" s="10"/>
+      <c r="F298" s="10"/>
     </row>
     <row r="299" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="19"/>
       <c r="B299" s="8"/>
-      <c r="E299" s="10"/>
+      <c r="F299" s="10"/>
     </row>
     <row r="300" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="19"/>
       <c r="B300" s="8"/>
-      <c r="E300" s="10"/>
+      <c r="F300" s="10"/>
     </row>
     <row r="301" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="19"/>
       <c r="B301" s="8"/>
-      <c r="E301" s="10"/>
+      <c r="F301" s="10"/>
     </row>
     <row r="302" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="19"/>
       <c r="B302" s="8"/>
-      <c r="E302" s="10"/>
+      <c r="F302" s="10"/>
     </row>
     <row r="303" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="19"/>
       <c r="B303" s="8"/>
-      <c r="E303" s="10"/>
+      <c r="F303" s="10"/>
     </row>
     <row r="304" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="19"/>
       <c r="B304" s="8"/>
-      <c r="E304" s="10"/>
+      <c r="F304" s="10"/>
     </row>
     <row r="305" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="19"/>
       <c r="B305" s="8"/>
-      <c r="E305" s="10"/>
+      <c r="F305" s="10"/>
     </row>
     <row r="306" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="19"/>
       <c r="B306" s="8"/>
-      <c r="E306" s="10"/>
+      <c r="F306" s="10"/>
     </row>
     <row r="307" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="19"/>
       <c r="B307" s="8"/>
-      <c r="E307" s="10"/>
+      <c r="F307" s="10"/>
     </row>
     <row r="308" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="19"/>
       <c r="B308" s="8"/>
-      <c r="E308" s="10"/>
+      <c r="F308" s="10"/>
     </row>
     <row r="309" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="19"/>
       <c r="B309" s="8"/>
-      <c r="E309" s="10"/>
+      <c r="F309" s="10"/>
     </row>
     <row r="310" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="19"/>
       <c r="B310" s="8"/>
-      <c r="E310" s="10"/>
+      <c r="F310" s="10"/>
     </row>
     <row r="311" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="19"/>
       <c r="B311" s="8"/>
-      <c r="E311" s="10"/>
+      <c r="F311" s="10"/>
     </row>
     <row r="312" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="19"/>
       <c r="B312" s="8"/>
-      <c r="E312" s="10"/>
+      <c r="F312" s="10"/>
     </row>
     <row r="313" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="19"/>
       <c r="B313" s="8"/>
-      <c r="E313" s="10"/>
+      <c r="F313" s="10"/>
     </row>
     <row r="314" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="19"/>
       <c r="B314" s="8"/>
-      <c r="E314" s="10"/>
+      <c r="F314" s="10"/>
     </row>
     <row r="315" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="19"/>
       <c r="B315" s="8"/>
-      <c r="E315" s="10"/>
+      <c r="F315" s="10"/>
     </row>
     <row r="316" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="19"/>
       <c r="B316" s="8"/>
-      <c r="E316" s="10"/>
+      <c r="F316" s="10"/>
     </row>
     <row r="317" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="19"/>
       <c r="B317" s="8"/>
-      <c r="E317" s="10"/>
+      <c r="F317" s="10"/>
     </row>
     <row r="318" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="19"/>
       <c r="B318" s="8"/>
-      <c r="E318" s="10"/>
+      <c r="F318" s="10"/>
     </row>
     <row r="319" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="19"/>
       <c r="B319" s="8"/>
-      <c r="E319" s="10"/>
+      <c r="F319" s="10"/>
     </row>
     <row r="320" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="19"/>
       <c r="B320" s="8"/>
-      <c r="E320" s="10"/>
+      <c r="F320" s="10"/>
     </row>
     <row r="321" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="19"/>
       <c r="B321" s="8"/>
-      <c r="E321" s="10"/>
+      <c r="F321" s="10"/>
     </row>
     <row r="322" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="19"/>
       <c r="B322" s="8"/>
-      <c r="E322" s="10"/>
+      <c r="F322" s="10"/>
     </row>
     <row r="323" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="19"/>
       <c r="B323" s="8"/>
-      <c r="E323" s="10"/>
+      <c r="F323" s="10"/>
     </row>
     <row r="324" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="19"/>
       <c r="B324" s="8"/>
-      <c r="E324" s="10"/>
+      <c r="F324" s="10"/>
     </row>
     <row r="325" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="19"/>
       <c r="B325" s="8"/>
-      <c r="E325" s="10"/>
+      <c r="F325" s="10"/>
     </row>
     <row r="326" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="19"/>
       <c r="B326" s="8"/>
-      <c r="E326" s="10"/>
+      <c r="F326" s="10"/>
     </row>
     <row r="327" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="19"/>
       <c r="B327" s="8"/>
-      <c r="E327" s="10"/>
+      <c r="F327" s="10"/>
     </row>
     <row r="328" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="19"/>
       <c r="B328" s="8"/>
-      <c r="E328" s="10"/>
+      <c r="F328" s="10"/>
     </row>
     <row r="329" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="19"/>
       <c r="B329" s="8"/>
-      <c r="E329" s="10"/>
+      <c r="F329" s="10"/>
     </row>
     <row r="330" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="19"/>
       <c r="B330" s="8"/>
-      <c r="E330" s="10"/>
+      <c r="F330" s="10"/>
     </row>
     <row r="331" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="19"/>
       <c r="B331" s="8"/>
-      <c r="E331" s="10"/>
+      <c r="F331" s="10"/>
     </row>
     <row r="332" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="19"/>
       <c r="B332" s="8"/>
-      <c r="E332" s="10"/>
+      <c r="F332" s="10"/>
     </row>
     <row r="333" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="19"/>
       <c r="B333" s="8"/>
-      <c r="E333" s="10"/>
+      <c r="F333" s="10"/>
     </row>
     <row r="334" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="19"/>
       <c r="B334" s="8"/>
-      <c r="E334" s="10"/>
+      <c r="F334" s="10"/>
     </row>
     <row r="335" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="19"/>
       <c r="B335" s="8"/>
-      <c r="E335" s="10"/>
+      <c r="F335" s="10"/>
     </row>
     <row r="336" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="19"/>
       <c r="B336" s="8"/>
-      <c r="E336" s="10"/>
+      <c r="F336" s="10"/>
     </row>
     <row r="337" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="19"/>
       <c r="B337" s="8"/>
-      <c r="E337" s="10"/>
+      <c r="F337" s="10"/>
     </row>
     <row r="338" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="19"/>
       <c r="B338" s="8"/>
-      <c r="E338" s="10"/>
+      <c r="F338" s="10"/>
     </row>
     <row r="339" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="19"/>
       <c r="B339" s="8"/>
-      <c r="E339" s="10"/>
+      <c r="F339" s="10"/>
     </row>
     <row r="340" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="19"/>
       <c r="B340" s="8"/>
-      <c r="E340" s="10"/>
+      <c r="F340" s="10"/>
     </row>
     <row r="341" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="19"/>
       <c r="B341" s="8"/>
-      <c r="E341" s="10"/>
+      <c r="F341" s="10"/>
     </row>
     <row r="342" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="19"/>
       <c r="B342" s="8"/>
-      <c r="E342" s="10"/>
+      <c r="F342" s="10"/>
     </row>
     <row r="343" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="19"/>
       <c r="B343" s="8"/>
-      <c r="E343" s="10"/>
+      <c r="F343" s="10"/>
     </row>
     <row r="344" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="19"/>
       <c r="B344" s="8"/>
-      <c r="E344" s="10"/>
+      <c r="F344" s="10"/>
     </row>
     <row r="345" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="19"/>
       <c r="B345" s="8"/>
-      <c r="E345" s="10"/>
+      <c r="F345" s="10"/>
     </row>
     <row r="346" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="19"/>
       <c r="B346" s="8"/>
-      <c r="E346" s="10"/>
+      <c r="F346" s="10"/>
     </row>
     <row r="347" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="19"/>
       <c r="B347" s="8"/>
-      <c r="E347" s="10"/>
+      <c r="F347" s="10"/>
     </row>
     <row r="348" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="19"/>
       <c r="B348" s="8"/>
-      <c r="E348" s="10"/>
+      <c r="F348" s="10"/>
     </row>
     <row r="349" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="19"/>
       <c r="B349" s="8"/>
-      <c r="E349" s="10"/>
+      <c r="F349" s="10"/>
     </row>
     <row r="350" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="19"/>
       <c r="B350" s="8"/>
-      <c r="E350" s="10"/>
+      <c r="F350" s="10"/>
     </row>
     <row r="351" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="19"/>
       <c r="B351" s="8"/>
-      <c r="E351" s="10"/>
+      <c r="F351" s="10"/>
     </row>
     <row r="352" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="19"/>
       <c r="B352" s="8"/>
-      <c r="E352" s="10"/>
+      <c r="F352" s="10"/>
     </row>
     <row r="353" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="19"/>
       <c r="B353" s="8"/>
-      <c r="E353" s="10"/>
+      <c r="F353" s="10"/>
     </row>
     <row r="354" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="19"/>
       <c r="B354" s="8"/>
-      <c r="E354" s="10"/>
+      <c r="F354" s="10"/>
     </row>
     <row r="355" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="19"/>
       <c r="B355" s="8"/>
-      <c r="E355" s="10"/>
+      <c r="F355" s="10"/>
     </row>
     <row r="356" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="19"/>
       <c r="B356" s="8"/>
-      <c r="E356" s="10"/>
+      <c r="F356" s="10"/>
     </row>
     <row r="357" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="19"/>
       <c r="B357" s="8"/>
-      <c r="E357" s="10"/>
+      <c r="F357" s="10"/>
     </row>
     <row r="358" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="19"/>
       <c r="B358" s="8"/>
-      <c r="E358" s="10"/>
+      <c r="F358" s="10"/>
     </row>
     <row r="359" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="19"/>
       <c r="B359" s="8"/>
-      <c r="E359" s="10"/>
+      <c r="F359" s="10"/>
     </row>
     <row r="360" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="19"/>
       <c r="B360" s="8"/>
-      <c r="E360" s="10"/>
+      <c r="F360" s="10"/>
     </row>
     <row r="361" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="19"/>
       <c r="B361" s="8"/>
-      <c r="E361" s="10"/>
+      <c r="F361" s="10"/>
     </row>
     <row r="362" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="19"/>
       <c r="B362" s="8"/>
-      <c r="E362" s="10"/>
+      <c r="F362" s="10"/>
     </row>
     <row r="363" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="19"/>
       <c r="B363" s="8"/>
-      <c r="E363" s="10"/>
+      <c r="F363" s="10"/>
     </row>
     <row r="364" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="19"/>
       <c r="B364" s="8"/>
-      <c r="E364" s="10"/>
+      <c r="F364" s="10"/>
     </row>
     <row r="365" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="19"/>
       <c r="B365" s="8"/>
-      <c r="E365" s="10"/>
+      <c r="F365" s="10"/>
     </row>
     <row r="366" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="19"/>
       <c r="B366" s="8"/>
-      <c r="E366" s="10"/>
+      <c r="F366" s="10"/>
     </row>
     <row r="367" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="19"/>
       <c r="B367" s="8"/>
-      <c r="E367" s="10"/>
+      <c r="F367" s="10"/>
     </row>
     <row r="368" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="19"/>
       <c r="B368" s="8"/>
-      <c r="E368" s="10"/>
+      <c r="F368" s="10"/>
     </row>
     <row r="369" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="19"/>
       <c r="B369" s="8"/>
-      <c r="E369" s="10"/>
+      <c r="F369" s="10"/>
     </row>
     <row r="370" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="19"/>
       <c r="B370" s="8"/>
-      <c r="E370" s="10"/>
+      <c r="F370" s="10"/>
     </row>
     <row r="371" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="19"/>
       <c r="B371" s="8"/>
-      <c r="E371" s="10"/>
+      <c r="F371" s="10"/>
     </row>
     <row r="372" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="19"/>
       <c r="B372" s="8"/>
-      <c r="E372" s="10"/>
+      <c r="F372" s="10"/>
     </row>
     <row r="373" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="19"/>
       <c r="B373" s="8"/>
-      <c r="E373" s="10"/>
+      <c r="F373" s="10"/>
     </row>
     <row r="374" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="19"/>
       <c r="B374" s="8"/>
-      <c r="E374" s="10"/>
+      <c r="F374" s="10"/>
     </row>
     <row r="375" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="19"/>
       <c r="B375" s="8"/>
-      <c r="E375" s="10"/>
+      <c r="F375" s="10"/>
     </row>
     <row r="376" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="19"/>
       <c r="B376" s="8"/>
-      <c r="E376" s="10"/>
+      <c r="F376" s="10"/>
     </row>
     <row r="377" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="19"/>
       <c r="B377" s="8"/>
-      <c r="E377" s="10"/>
+      <c r="F377" s="10"/>
     </row>
     <row r="378" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="19"/>
       <c r="B378" s="8"/>
-      <c r="E378" s="10"/>
+      <c r="F378" s="10"/>
     </row>
     <row r="379" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="19"/>
       <c r="B379" s="8"/>
-      <c r="E379" s="10"/>
+      <c r="F379" s="10"/>
     </row>
     <row r="380" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="19"/>
       <c r="B380" s="8"/>
-      <c r="E380" s="10"/>
+      <c r="F380" s="10"/>
     </row>
     <row r="381" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="19"/>
       <c r="B381" s="8"/>
-      <c r="E381" s="10"/>
+      <c r="F381" s="10"/>
     </row>
     <row r="382" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="19"/>
       <c r="B382" s="8"/>
-      <c r="E382" s="10"/>
+      <c r="F382" s="10"/>
     </row>
     <row r="383" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="19"/>
       <c r="B383" s="8"/>
-      <c r="E383" s="10"/>
+      <c r="F383" s="10"/>
     </row>
     <row r="384" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="19"/>
       <c r="B384" s="8"/>
-      <c r="E384" s="10"/>
+      <c r="F384" s="10"/>
     </row>
     <row r="385" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="19"/>
       <c r="B385" s="8"/>
-      <c r="E385" s="10"/>
+      <c r="F385" s="10"/>
     </row>
     <row r="386" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="19"/>
       <c r="B386" s="8"/>
-      <c r="E386" s="10"/>
+      <c r="F386" s="10"/>
     </row>
     <row r="387" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="19"/>
       <c r="B387" s="8"/>
-      <c r="E387" s="10"/>
+      <c r="F387" s="10"/>
     </row>
     <row r="388" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="19"/>
       <c r="B388" s="8"/>
-      <c r="E388" s="10"/>
+      <c r="F388" s="10"/>
     </row>
     <row r="389" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="19"/>
       <c r="B389" s="8"/>
-      <c r="E389" s="10"/>
+      <c r="F389" s="10"/>
     </row>
     <row r="390" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="19"/>
       <c r="B390" s="8"/>
-      <c r="E390" s="10"/>
+      <c r="F390" s="10"/>
     </row>
     <row r="391" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="19"/>
       <c r="B391" s="8"/>
-      <c r="E391" s="10"/>
+      <c r="F391" s="10"/>
     </row>
     <row r="392" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="19"/>
       <c r="B392" s="8"/>
-      <c r="E392" s="10"/>
+      <c r="F392" s="10"/>
     </row>
     <row r="393" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="19"/>
       <c r="B393" s="8"/>
-      <c r="E393" s="10"/>
+      <c r="F393" s="10"/>
     </row>
     <row r="394" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="19"/>
       <c r="B394" s="8"/>
-      <c r="E394" s="10"/>
+      <c r="F394" s="10"/>
     </row>
     <row r="395" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="19"/>
       <c r="B395" s="8"/>
-      <c r="E395" s="10"/>
+      <c r="F395" s="10"/>
     </row>
     <row r="396" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="19"/>
       <c r="B396" s="8"/>
-      <c r="E396" s="10"/>
+      <c r="F396" s="10"/>
     </row>
     <row r="397" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="19"/>
       <c r="B397" s="8"/>
-      <c r="E397" s="10"/>
+      <c r="F397" s="10"/>
     </row>
     <row r="398" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="19"/>
       <c r="B398" s="8"/>
-      <c r="E398" s="10"/>
+      <c r="F398" s="10"/>
     </row>
     <row r="399" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="19"/>
       <c r="B399" s="8"/>
-      <c r="E399" s="10"/>
+      <c r="F399" s="10"/>
     </row>
     <row r="400" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="19"/>
       <c r="B400" s="8"/>
-      <c r="E400" s="10"/>
+      <c r="F400" s="10"/>
     </row>
     <row r="401" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="19"/>
       <c r="B401" s="8"/>
-      <c r="E401" s="10"/>
+      <c r="F401" s="10"/>
     </row>
     <row r="402" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="19"/>
       <c r="B402" s="8"/>
-      <c r="E402" s="10"/>
+      <c r="F402" s="10"/>
     </row>
     <row r="403" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="19"/>
       <c r="B403" s="8"/>
-      <c r="E403" s="10"/>
+      <c r="F403" s="10"/>
     </row>
     <row r="404" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="19"/>
       <c r="B404" s="8"/>
-      <c r="E404" s="10"/>
+      <c r="F404" s="10"/>
     </row>
     <row r="405" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="19"/>
       <c r="B405" s="8"/>
-      <c r="E405" s="10"/>
+      <c r="F405" s="10"/>
     </row>
     <row r="406" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="19"/>
       <c r="B406" s="8"/>
-      <c r="E406" s="10"/>
+      <c r="F406" s="10"/>
     </row>
     <row r="407" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="19"/>
       <c r="B407" s="8"/>
-      <c r="E407" s="10"/>
+      <c r="F407" s="10"/>
     </row>
     <row r="408" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="19"/>
       <c r="B408" s="8"/>
-      <c r="E408" s="10"/>
+      <c r="F408" s="10"/>
     </row>
     <row r="409" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="19"/>
       <c r="B409" s="8"/>
-      <c r="E409" s="10"/>
+      <c r="F409" s="10"/>
     </row>
     <row r="410" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="19"/>
       <c r="B410" s="8"/>
-      <c r="E410" s="10"/>
+      <c r="F410" s="10"/>
     </row>
     <row r="411" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="19"/>
       <c r="B411" s="8"/>
-      <c r="E411" s="10"/>
+      <c r="F411" s="10"/>
     </row>
     <row r="412" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="19"/>
       <c r="B412" s="8"/>
-      <c r="E412" s="10"/>
+      <c r="F412" s="10"/>
     </row>
     <row r="413" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="19"/>
       <c r="B413" s="8"/>
-      <c r="E413" s="10"/>
+      <c r="F413" s="10"/>
     </row>
     <row r="414" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="19"/>
       <c r="B414" s="8"/>
-      <c r="E414" s="10"/>
+      <c r="F414" s="10"/>
     </row>
     <row r="415" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="19"/>
       <c r="B415" s="8"/>
-      <c r="E415" s="10"/>
+      <c r="F415" s="10"/>
     </row>
     <row r="416" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="19"/>
       <c r="B416" s="8"/>
-      <c r="E416" s="10"/>
+      <c r="F416" s="10"/>
     </row>
     <row r="417" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="19"/>
       <c r="B417" s="8"/>
-      <c r="E417" s="10"/>
+      <c r="F417" s="10"/>
     </row>
     <row r="418" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="19"/>
       <c r="B418" s="8"/>
-      <c r="E418" s="10"/>
+      <c r="F418" s="10"/>
     </row>
     <row r="419" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="19"/>
       <c r="B419" s="8"/>
-      <c r="E419" s="10"/>
+      <c r="F419" s="10"/>
     </row>
     <row r="420" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="19"/>
       <c r="B420" s="8"/>
-      <c r="E420" s="10"/>
+      <c r="F420" s="10"/>
     </row>
     <row r="421" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="19"/>
       <c r="B421" s="8"/>
-      <c r="E421" s="10"/>
+      <c r="F421" s="10"/>
     </row>
     <row r="422" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="19"/>
       <c r="B422" s="8"/>
-      <c r="E422" s="10"/>
+      <c r="F422" s="10"/>
     </row>
     <row r="423" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="19"/>
       <c r="B423" s="8"/>
-      <c r="E423" s="10"/>
+      <c r="F423" s="10"/>
     </row>
     <row r="424" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="19"/>
       <c r="B424" s="8"/>
-      <c r="E424" s="10"/>
+      <c r="F424" s="10"/>
     </row>
     <row r="425" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="19"/>
       <c r="B425" s="8"/>
-      <c r="E425" s="10"/>
+      <c r="F425" s="10"/>
     </row>
     <row r="426" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="19"/>
       <c r="B426" s="8"/>
-      <c r="E426" s="10"/>
+      <c r="F426" s="10"/>
     </row>
     <row r="427" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="19"/>
       <c r="B427" s="8"/>
-      <c r="E427" s="10"/>
+      <c r="F427" s="10"/>
     </row>
     <row r="428" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="19"/>
       <c r="B428" s="8"/>
-      <c r="E428" s="10"/>
+      <c r="F428" s="10"/>
     </row>
     <row r="429" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="19"/>
       <c r="B429" s="8"/>
-      <c r="E429" s="10"/>
+      <c r="F429" s="10"/>
     </row>
     <row r="430" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="19"/>
       <c r="B430" s="8"/>
-      <c r="E430" s="10"/>
+      <c r="F430" s="10"/>
     </row>
     <row r="431" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="19"/>
       <c r="B431" s="8"/>
-      <c r="E431" s="10"/>
+      <c r="F431" s="10"/>
     </row>
     <row r="432" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="19"/>
       <c r="B432" s="8"/>
-      <c r="E432" s="10"/>
+      <c r="F432" s="10"/>
     </row>
     <row r="433" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="19"/>
       <c r="B433" s="8"/>
-      <c r="E433" s="10"/>
+      <c r="F433" s="10"/>
     </row>
     <row r="434" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="19"/>
       <c r="B434" s="8"/>
-      <c r="E434" s="10"/>
+      <c r="F434" s="10"/>
     </row>
     <row r="435" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="19"/>
       <c r="B435" s="8"/>
-      <c r="E435" s="10"/>
+      <c r="F435" s="10"/>
     </row>
     <row r="436" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="19"/>
       <c r="B436" s="8"/>
-      <c r="E436" s="10"/>
+      <c r="F436" s="10"/>
     </row>
     <row r="437" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="19"/>
       <c r="B437" s="8"/>
-      <c r="E437" s="10"/>
+      <c r="F437" s="10"/>
     </row>
     <row r="438" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="19"/>
       <c r="B438" s="8"/>
-      <c r="E438" s="10"/>
+      <c r="F438" s="10"/>
     </row>
     <row r="439" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="19"/>
       <c r="B439" s="8"/>
-      <c r="E439" s="10"/>
+      <c r="F439" s="10"/>
     </row>
     <row r="440" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="19"/>
       <c r="B440" s="8"/>
-      <c r="E440" s="10"/>
+      <c r="F440" s="10"/>
     </row>
     <row r="441" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="19"/>
       <c r="B441" s="8"/>
-      <c r="E441" s="10"/>
+      <c r="F441" s="10"/>
     </row>
     <row r="442" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="19"/>
       <c r="B442" s="8"/>
-      <c r="E442" s="10"/>
+      <c r="F442" s="10"/>
     </row>
     <row r="443" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="19"/>
       <c r="B443" s="8"/>
-      <c r="E443" s="10"/>
+      <c r="F443" s="10"/>
     </row>
     <row r="444" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="19"/>
       <c r="B444" s="8"/>
-      <c r="E444" s="10"/>
+      <c r="F444" s="10"/>
     </row>
     <row r="445" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="19"/>
       <c r="B445" s="8"/>
-      <c r="E445" s="10"/>
+      <c r="F445" s="10"/>
     </row>
     <row r="446" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="19"/>
       <c r="B446" s="8"/>
-      <c r="E446" s="10"/>
+      <c r="F446" s="10"/>
     </row>
     <row r="447" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="19"/>
       <c r="B447" s="8"/>
-      <c r="E447" s="10"/>
+      <c r="F447" s="10"/>
     </row>
     <row r="448" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="19"/>
       <c r="B448" s="8"/>
-      <c r="E448" s="10"/>
+      <c r="F448" s="10"/>
     </row>
     <row r="449" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="19"/>
       <c r="B449" s="8"/>
-      <c r="E449" s="10"/>
+      <c r="F449" s="10"/>
     </row>
     <row r="450" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="19"/>
       <c r="B450" s="8"/>
-      <c r="E450" s="10"/>
+      <c r="F450" s="10"/>
     </row>
     <row r="451" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="19"/>
       <c r="B451" s="8"/>
-      <c r="E451" s="10"/>
+      <c r="F451" s="10"/>
     </row>
     <row r="452" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="19"/>
       <c r="B452" s="8"/>
-      <c r="E452" s="10"/>
+      <c r="F452" s="10"/>
     </row>
     <row r="453" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="19"/>
       <c r="B453" s="8"/>
-      <c r="E453" s="10"/>
+      <c r="F453" s="10"/>
     </row>
     <row r="454" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="19"/>
       <c r="B454" s="8"/>
-      <c r="E454" s="10"/>
+      <c r="F454" s="10"/>
     </row>
     <row r="455" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="19"/>
       <c r="B455" s="8"/>
-      <c r="E455" s="10"/>
+      <c r="F455" s="10"/>
     </row>
     <row r="456" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="19"/>
       <c r="B456" s="8"/>
-      <c r="E456" s="10"/>
+      <c r="F456" s="10"/>
     </row>
     <row r="457" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="19"/>
       <c r="B457" s="8"/>
-      <c r="E457" s="10"/>
+      <c r="F457" s="10"/>
     </row>
     <row r="458" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="19"/>
       <c r="B458" s="8"/>
-      <c r="E458" s="10"/>
+      <c r="F458" s="10"/>
     </row>
     <row r="459" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="19"/>
       <c r="B459" s="8"/>
-      <c r="E459" s="10"/>
+      <c r="F459" s="10"/>
     </row>
     <row r="460" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="19"/>
       <c r="B460" s="8"/>
-      <c r="E460" s="10"/>
+      <c r="F460" s="10"/>
     </row>
     <row r="461" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="19"/>
       <c r="B461" s="8"/>
-      <c r="E461" s="10"/>
+      <c r="F461" s="10"/>
     </row>
     <row r="462" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="19"/>
       <c r="B462" s="8"/>
-      <c r="E462" s="10"/>
+      <c r="F462" s="10"/>
     </row>
     <row r="463" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="19"/>
       <c r="B463" s="8"/>
-      <c r="E463" s="10"/>
+      <c r="F463" s="10"/>
     </row>
     <row r="464" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="19"/>
       <c r="B464" s="8"/>
-      <c r="E464" s="10"/>
+      <c r="F464" s="10"/>
     </row>
     <row r="465" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="19"/>
       <c r="B465" s="8"/>
-      <c r="E465" s="10"/>
+      <c r="F465" s="10"/>
     </row>
     <row r="466" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="19"/>
       <c r="B466" s="8"/>
-      <c r="E466" s="10"/>
+      <c r="F466" s="10"/>
     </row>
     <row r="467" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="19"/>
       <c r="B467" s="8"/>
-      <c r="E467" s="10"/>
+      <c r="F467" s="10"/>
     </row>
     <row r="468" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="19"/>
       <c r="B468" s="8"/>
-      <c r="E468" s="10"/>
+      <c r="F468" s="10"/>
     </row>
     <row r="469" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="19"/>
       <c r="B469" s="8"/>
-      <c r="E469" s="10"/>
+      <c r="F469" s="10"/>
     </row>
     <row r="470" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="19"/>
       <c r="B470" s="8"/>
-      <c r="E470" s="10"/>
+      <c r="F470" s="10"/>
     </row>
     <row r="471" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="19"/>
       <c r="B471" s="8"/>
-      <c r="E471" s="10"/>
+      <c r="F471" s="10"/>
     </row>
     <row r="472" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="19"/>
       <c r="B472" s="8"/>
-      <c r="E472" s="10"/>
+      <c r="F472" s="10"/>
     </row>
     <row r="473" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="19"/>
       <c r="B473" s="8"/>
-      <c r="E473" s="10"/>
+      <c r="F473" s="10"/>
     </row>
     <row r="474" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="19"/>
       <c r="B474" s="8"/>
-      <c r="E474" s="10"/>
+      <c r="F474" s="10"/>
     </row>
     <row r="475" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="19"/>
       <c r="B475" s="8"/>
-      <c r="E475" s="10"/>
+      <c r="F475" s="10"/>
     </row>
     <row r="476" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="19"/>
       <c r="B476" s="8"/>
-      <c r="E476" s="10"/>
+      <c r="F476" s="10"/>
     </row>
     <row r="477" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="19"/>
       <c r="B477" s="8"/>
-      <c r="E477" s="10"/>
+      <c r="F477" s="10"/>
     </row>
     <row r="478" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="19"/>
       <c r="B478" s="8"/>
-      <c r="E478" s="10"/>
+      <c r="F478" s="10"/>
     </row>
     <row r="479" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="19"/>
       <c r="B479" s="8"/>
-      <c r="E479" s="10"/>
+      <c r="F479" s="10"/>
     </row>
     <row r="480" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="19"/>
       <c r="B480" s="8"/>
-      <c r="E480" s="10"/>
+      <c r="F480" s="10"/>
     </row>
     <row r="481" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="19"/>
       <c r="B481" s="8"/>
-      <c r="E481" s="10"/>
+      <c r="F481" s="10"/>
     </row>
     <row r="482" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="19"/>
       <c r="B482" s="8"/>
-      <c r="E482" s="10"/>
+      <c r="F482" s="10"/>
     </row>
     <row r="483" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="19"/>
       <c r="B483" s="8"/>
-      <c r="E483" s="10"/>
+      <c r="F483" s="10"/>
     </row>
     <row r="484" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="19"/>
       <c r="B484" s="8"/>
-      <c r="E484" s="10"/>
+      <c r="F484" s="10"/>
     </row>
     <row r="485" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="19"/>
       <c r="B485" s="8"/>
-      <c r="E485" s="10"/>
+      <c r="F485" s="10"/>
     </row>
     <row r="486" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="19"/>
       <c r="B486" s="8"/>
-      <c r="E486" s="10"/>
+      <c r="F486" s="10"/>
     </row>
     <row r="487" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="19"/>
       <c r="B487" s="8"/>
-      <c r="E487" s="10"/>
+      <c r="F487" s="10"/>
     </row>
     <row r="488" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="19"/>
       <c r="B488" s="8"/>
-      <c r="E488" s="10"/>
+      <c r="F488" s="10"/>
     </row>
     <row r="489" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="19"/>
       <c r="B489" s="8"/>
-      <c r="E489" s="10"/>
+      <c r="F489" s="10"/>
     </row>
     <row r="490" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="19"/>
       <c r="B490" s="8"/>
-      <c r="E490" s="10"/>
+      <c r="F490" s="10"/>
     </row>
     <row r="491" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="19"/>
       <c r="B491" s="8"/>
-      <c r="E491" s="10"/>
+      <c r="F491" s="10"/>
     </row>
     <row r="492" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="19"/>
       <c r="B492" s="8"/>
-      <c r="E492" s="10"/>
+      <c r="F492" s="10"/>
     </row>
     <row r="493" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="19"/>
       <c r="B493" s="8"/>
-      <c r="E493" s="10"/>
+      <c r="F493" s="10"/>
     </row>
     <row r="494" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="19"/>
       <c r="B494" s="8"/>
-      <c r="E494" s="10"/>
+      <c r="F494" s="10"/>
     </row>
     <row r="495" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="19"/>
       <c r="B495" s="8"/>
-      <c r="E495" s="10"/>
+      <c r="F495" s="10"/>
     </row>
     <row r="496" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="19"/>
       <c r="B496" s="8"/>
-      <c r="E496" s="10"/>
+      <c r="F496" s="10"/>
     </row>
     <row r="497" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="19"/>
       <c r="B497" s="8"/>
-      <c r="E497" s="10"/>
+      <c r="F497" s="10"/>
     </row>
     <row r="498" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="19"/>
       <c r="B498" s="8"/>
-      <c r="E498" s="10"/>
+      <c r="F498" s="10"/>
     </row>
     <row r="499" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="19"/>
       <c r="B499" s="8"/>
-      <c r="E499" s="10"/>
+      <c r="F499" s="10"/>
     </row>
     <row r="500" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="19"/>
       <c r="B500" s="8"/>
-      <c r="E500" s="10"/>
+      <c r="F500" s="10"/>
     </row>
     <row r="501" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="19"/>
       <c r="B501" s="8"/>
-      <c r="E501" s="10"/>
+      <c r="F501" s="10"/>
     </row>
     <row r="502" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="19"/>
       <c r="B502" s="8"/>
-      <c r="E502" s="10"/>
+      <c r="F502" s="10"/>
     </row>
     <row r="503" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="19"/>
       <c r="B503" s="8"/>
-      <c r="E503" s="10"/>
+      <c r="F503" s="10"/>
     </row>
     <row r="504" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="19"/>
       <c r="B504" s="8"/>
-      <c r="E504" s="10"/>
+      <c r="F504" s="10"/>
     </row>
     <row r="505" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="19"/>
       <c r="B505" s="8"/>
-      <c r="E505" s="10"/>
+      <c r="F505" s="10"/>
     </row>
     <row r="506" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="19"/>
       <c r="B506" s="8"/>
-      <c r="E506" s="10"/>
+      <c r="F506" s="10"/>
     </row>
     <row r="507" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="19"/>
       <c r="B507" s="8"/>
-      <c r="E507" s="10"/>
+      <c r="F507" s="10"/>
     </row>
     <row r="508" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="19"/>
       <c r="B508" s="8"/>
-      <c r="E508" s="10"/>
+      <c r="F508" s="10"/>
     </row>
     <row r="509" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="19"/>
       <c r="B509" s="8"/>
-      <c r="E509" s="10"/>
+      <c r="F509" s="10"/>
     </row>
     <row r="510" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="19"/>
       <c r="B510" s="8"/>
-      <c r="E510" s="10"/>
+      <c r="F510" s="10"/>
     </row>
     <row r="511" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="19"/>
       <c r="B511" s="8"/>
-      <c r="E511" s="10"/>
+      <c r="F511" s="10"/>
     </row>
     <row r="512" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="19"/>
       <c r="B512" s="8"/>
-      <c r="E512" s="10"/>
+      <c r="F512" s="10"/>
     </row>
     <row r="513" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="19"/>
       <c r="B513" s="8"/>
-      <c r="E513" s="10"/>
+      <c r="F513" s="10"/>
     </row>
     <row r="514" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="19"/>
       <c r="B514" s="8"/>
-      <c r="E514" s="10"/>
+      <c r="F514" s="10"/>
     </row>
     <row r="515" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="19"/>
       <c r="B515" s="8"/>
-      <c r="E515" s="10"/>
+      <c r="F515" s="10"/>
     </row>
     <row r="516" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="19"/>
       <c r="B516" s="8"/>
-      <c r="E516" s="10"/>
+      <c r="F516" s="10"/>
     </row>
     <row r="517" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="19"/>
       <c r="B517" s="8"/>
-      <c r="E517" s="10"/>
+      <c r="F517" s="10"/>
     </row>
     <row r="518" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="19"/>
       <c r="B518" s="8"/>
-      <c r="E518" s="10"/>
+      <c r="F518" s="10"/>
     </row>
     <row r="519" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="19"/>
       <c r="B519" s="8"/>
-      <c r="E519" s="10"/>
+      <c r="F519" s="10"/>
     </row>
     <row r="520" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="19"/>
       <c r="B520" s="8"/>
-      <c r="E520" s="10"/>
+      <c r="F520" s="10"/>
     </row>
     <row r="521" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="19"/>
       <c r="B521" s="8"/>
-      <c r="E521" s="10"/>
+      <c r="F521" s="10"/>
     </row>
     <row r="522" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="19"/>
       <c r="B522" s="8"/>
-      <c r="E522" s="10"/>
+      <c r="F522" s="10"/>
     </row>
     <row r="523" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="19"/>
       <c r="B523" s="8"/>
-      <c r="E523" s="10"/>
+      <c r="F523" s="10"/>
     </row>
     <row r="524" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="19"/>
       <c r="B524" s="8"/>
-      <c r="E524" s="10"/>
+      <c r="F524" s="10"/>
     </row>
     <row r="525" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="19"/>
       <c r="B525" s="8"/>
-      <c r="E525" s="10"/>
+      <c r="F525" s="10"/>
     </row>
     <row r="526" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="19"/>
       <c r="B526" s="8"/>
-      <c r="E526" s="10"/>
+      <c r="F526" s="10"/>
     </row>
     <row r="527" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="19"/>
       <c r="B527" s="8"/>
-      <c r="E527" s="10"/>
+      <c r="F527" s="10"/>
     </row>
     <row r="528" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="19"/>
       <c r="B528" s="8"/>
-      <c r="E528" s="10"/>
+      <c r="F528" s="10"/>
     </row>
     <row r="529" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="19"/>
       <c r="B529" s="8"/>
-      <c r="E529" s="10"/>
+      <c r="F529" s="10"/>
     </row>
     <row r="530" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="19"/>
       <c r="B530" s="8"/>
-      <c r="E530" s="10"/>
+      <c r="F530" s="10"/>
     </row>
     <row r="531" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="19"/>
       <c r="B531" s="8"/>
-      <c r="E531" s="10"/>
+      <c r="F531" s="10"/>
     </row>
     <row r="532" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="19"/>
       <c r="B532" s="8"/>
-      <c r="E532" s="10"/>
+      <c r="F532" s="10"/>
     </row>
     <row r="533" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="19"/>
       <c r="B533" s="8"/>
-      <c r="E533" s="10"/>
+      <c r="F533" s="10"/>
     </row>
     <row r="534" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="19"/>
       <c r="B534" s="8"/>
-      <c r="E534" s="10"/>
+      <c r="F534" s="10"/>
     </row>
     <row r="535" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="19"/>
       <c r="B535" s="8"/>
-      <c r="E535" s="10"/>
+      <c r="F535" s="10"/>
     </row>
     <row r="536" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="19"/>
       <c r="B536" s="8"/>
-      <c r="E536" s="10"/>
+      <c r="F536" s="10"/>
     </row>
     <row r="537" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="19"/>
       <c r="B537" s="8"/>
-      <c r="E537" s="10"/>
+      <c r="F537" s="10"/>
     </row>
     <row r="538" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="19"/>
       <c r="B538" s="8"/>
-      <c r="E538" s="10"/>
+      <c r="F538" s="10"/>
     </row>
     <row r="539" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="19"/>
       <c r="B539" s="8"/>
-      <c r="E539" s="10"/>
+      <c r="F539" s="10"/>
     </row>
     <row r="540" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="19"/>
       <c r="B540" s="8"/>
-      <c r="E540" s="10"/>
+      <c r="F540" s="10"/>
     </row>
     <row r="541" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="19"/>
       <c r="B541" s="8"/>
-      <c r="E541" s="10"/>
+      <c r="F541" s="10"/>
     </row>
     <row r="542" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="19"/>
       <c r="B542" s="8"/>
-      <c r="E542" s="10"/>
+      <c r="F542" s="10"/>
     </row>
     <row r="543" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="19"/>
       <c r="B543" s="8"/>
-      <c r="E543" s="10"/>
+      <c r="F543" s="10"/>
     </row>
     <row r="544" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="19"/>
       <c r="B544" s="8"/>
-      <c r="E544" s="10"/>
+      <c r="F544" s="10"/>
     </row>
     <row r="545" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="19"/>
       <c r="B545" s="8"/>
-      <c r="E545" s="10"/>
+      <c r="F545" s="10"/>
     </row>
     <row r="546" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="19"/>
       <c r="B546" s="8"/>
-      <c r="E546" s="10"/>
+      <c r="F546" s="10"/>
     </row>
     <row r="547" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="19"/>
       <c r="B547" s="8"/>
-      <c r="E547" s="10"/>
+      <c r="F547" s="10"/>
     </row>
     <row r="548" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="19"/>
       <c r="B548" s="8"/>
-      <c r="E548" s="10"/>
+      <c r="F548" s="10"/>
     </row>
     <row r="549" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="19"/>
       <c r="B549" s="8"/>
-      <c r="E549" s="10"/>
+      <c r="F549" s="10"/>
     </row>
     <row r="550" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="19"/>
       <c r="B550" s="8"/>
-      <c r="E550" s="10"/>
+      <c r="F550" s="10"/>
     </row>
     <row r="551" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="19"/>
       <c r="B551" s="8"/>
-      <c r="E551" s="10"/>
+      <c r="F551" s="10"/>
     </row>
     <row r="552" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="19"/>
       <c r="B552" s="8"/>
-      <c r="E552" s="10"/>
+      <c r="F552" s="10"/>
     </row>
     <row r="553" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="19"/>
       <c r="B553" s="8"/>
-      <c r="E553" s="10"/>
+      <c r="F553" s="10"/>
     </row>
     <row r="554" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="19"/>
       <c r="B554" s="8"/>
-      <c r="E554" s="10"/>
+      <c r="F554" s="10"/>
     </row>
     <row r="555" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="19"/>
       <c r="B555" s="8"/>
-      <c r="E555" s="10"/>
+      <c r="F555" s="10"/>
     </row>
     <row r="556" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="19"/>
       <c r="B556" s="8"/>
-      <c r="E556" s="10"/>
+      <c r="F556" s="10"/>
     </row>
     <row r="557" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="19"/>
       <c r="B557" s="8"/>
-      <c r="E557" s="10"/>
+      <c r="F557" s="10"/>
     </row>
     <row r="558" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="19"/>
       <c r="B558" s="8"/>
-      <c r="E558" s="10"/>
+      <c r="F558" s="10"/>
     </row>
     <row r="559" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="19"/>
       <c r="B559" s="8"/>
-      <c r="E559" s="10"/>
+      <c r="F559" s="10"/>
     </row>
     <row r="560" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="19"/>
       <c r="B560" s="8"/>
-      <c r="E560" s="10"/>
+      <c r="F560" s="10"/>
     </row>
     <row r="561" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="19"/>
       <c r="B561" s="8"/>
-      <c r="E561" s="10"/>
+      <c r="F561" s="10"/>
     </row>
     <row r="562" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="19"/>
       <c r="B562" s="8"/>
-      <c r="E562" s="10"/>
+      <c r="F562" s="10"/>
     </row>
     <row r="563" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="19"/>
       <c r="B563" s="8"/>
-      <c r="E563" s="10"/>
+      <c r="F563" s="10"/>
     </row>
     <row r="564" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="19"/>
       <c r="B564" s="8"/>
-      <c r="E564" s="10"/>
+      <c r="F564" s="10"/>
     </row>
     <row r="565" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="19"/>
       <c r="B565" s="8"/>
-      <c r="E565" s="10"/>
+      <c r="F565" s="10"/>
     </row>
     <row r="566" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="19"/>
       <c r="B566" s="8"/>
-      <c r="E566" s="10"/>
+      <c r="F566" s="10"/>
     </row>
     <row r="567" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A567" s="19"/>
       <c r="B567" s="8"/>
-      <c r="E567" s="10"/>
+      <c r="F567" s="10"/>
     </row>
     <row r="568" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="19"/>
       <c r="B568" s="8"/>
-      <c r="E568" s="10"/>
+      <c r="F568" s="10"/>
     </row>
     <row r="569" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="19"/>
       <c r="B569" s="8"/>
-      <c r="E569" s="10"/>
+      <c r="F569" s="10"/>
     </row>
     <row r="570" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="19"/>
       <c r="B570" s="8"/>
-      <c r="E570" s="10"/>
+      <c r="F570" s="10"/>
     </row>
     <row r="571" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A571" s="19"/>
       <c r="B571" s="8"/>
-      <c r="E571" s="10"/>
+      <c r="F571" s="10"/>
     </row>
     <row r="572" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="19"/>
       <c r="B572" s="8"/>
-      <c r="E572" s="10"/>
+      <c r="F572" s="10"/>
     </row>
     <row r="573" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A573" s="19"/>
       <c r="B573" s="8"/>
-      <c r="E573" s="10"/>
+      <c r="F573" s="10"/>
     </row>
     <row r="574" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="19"/>
       <c r="B574" s="8"/>
-      <c r="E574" s="10"/>
+      <c r="F574" s="10"/>
     </row>
     <row r="575" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="19"/>
       <c r="B575" s="8"/>
-      <c r="E575" s="10"/>
+      <c r="F575" s="10"/>
     </row>
     <row r="576" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="19"/>
       <c r="B576" s="8"/>
-      <c r="E576" s="10"/>
+      <c r="F576" s="10"/>
     </row>
     <row r="577" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="19"/>
       <c r="B577" s="8"/>
-      <c r="E577" s="10"/>
+      <c r="F577" s="10"/>
     </row>
     <row r="578" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="19"/>
       <c r="B578" s="8"/>
-      <c r="E578" s="10"/>
+      <c r="F578" s="10"/>
     </row>
     <row r="579" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="19"/>
       <c r="B579" s="8"/>
-      <c r="E579" s="10"/>
+      <c r="F579" s="10"/>
     </row>
     <row r="580" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="19"/>
       <c r="B580" s="8"/>
-      <c r="E580" s="10"/>
+      <c r="F580" s="10"/>
     </row>
     <row r="581" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="19"/>
       <c r="B581" s="8"/>
-      <c r="E581" s="10"/>
+      <c r="F581" s="10"/>
     </row>
     <row r="582" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="19"/>
       <c r="B582" s="8"/>
-      <c r="E582" s="10"/>
+      <c r="F582" s="10"/>
     </row>
     <row r="583" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="19"/>
       <c r="B583" s="8"/>
-      <c r="E583" s="10"/>
+      <c r="F583" s="10"/>
     </row>
     <row r="584" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="19"/>
       <c r="B584" s="8"/>
-      <c r="E584" s="10"/>
+      <c r="F584" s="10"/>
     </row>
     <row r="585" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="19"/>
       <c r="B585" s="8"/>
-      <c r="E585" s="10"/>
+      <c r="F585" s="10"/>
     </row>
     <row r="586" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="19"/>
       <c r="B586" s="8"/>
-      <c r="E586" s="10"/>
+      <c r="F586" s="10"/>
     </row>
     <row r="587" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="19"/>
       <c r="B587" s="8"/>
-      <c r="E587" s="10"/>
+      <c r="F587" s="10"/>
     </row>
     <row r="588" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A588" s="19"/>
       <c r="B588" s="8"/>
-      <c r="E588" s="10"/>
+      <c r="F588" s="10"/>
     </row>
     <row r="589" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A589" s="19"/>
       <c r="B589" s="8"/>
-      <c r="E589" s="10"/>
+      <c r="F589" s="10"/>
     </row>
     <row r="590" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A590" s="19"/>
       <c r="B590" s="8"/>
-      <c r="E590" s="10"/>
+      <c r="F590" s="10"/>
     </row>
     <row r="591" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A591" s="19"/>
       <c r="B591" s="8"/>
-      <c r="E591" s="10"/>
+      <c r="F591" s="10"/>
     </row>
     <row r="592" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="19"/>
       <c r="B592" s="8"/>
-      <c r="E592" s="10"/>
+      <c r="F592" s="10"/>
     </row>
     <row r="593" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A593" s="19"/>
       <c r="B593" s="8"/>
-      <c r="E593" s="10"/>
+      <c r="F593" s="10"/>
     </row>
     <row r="594" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A594" s="19"/>
       <c r="B594" s="8"/>
-      <c r="E594" s="10"/>
+      <c r="F594" s="10"/>
     </row>
     <row r="595" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A595" s="19"/>
       <c r="B595" s="8"/>
-      <c r="E595" s="10"/>
+      <c r="F595" s="10"/>
     </row>
     <row r="596" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="19"/>
       <c r="B596" s="8"/>
-      <c r="E596" s="10"/>
+      <c r="F596" s="10"/>
     </row>
     <row r="597" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="19"/>
       <c r="B597" s="8"/>
-      <c r="E597" s="10"/>
+      <c r="F597" s="10"/>
     </row>
     <row r="598" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="19"/>
       <c r="B598" s="8"/>
-      <c r="E598" s="10"/>
+      <c r="F598" s="10"/>
     </row>
     <row r="599" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="19"/>
       <c r="B599" s="8"/>
-      <c r="E599" s="10"/>
+      <c r="F599" s="10"/>
     </row>
     <row r="600" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A600" s="19"/>
       <c r="B600" s="8"/>
-      <c r="E600" s="10"/>
+      <c r="F600" s="10"/>
     </row>
     <row r="601" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A601" s="19"/>
       <c r="B601" s="8"/>
-      <c r="E601" s="10"/>
+      <c r="F601" s="10"/>
     </row>
     <row r="602" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A602" s="19"/>
       <c r="B602" s="8"/>
-      <c r="E602" s="10"/>
+      <c r="F602" s="10"/>
     </row>
     <row r="603" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A603" s="19"/>
       <c r="B603" s="8"/>
-      <c r="E603" s="10"/>
+      <c r="F603" s="10"/>
     </row>
     <row r="604" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A604" s="19"/>
       <c r="B604" s="8"/>
-      <c r="E604" s="10"/>
+      <c r="F604" s="10"/>
     </row>
     <row r="605" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A605" s="19"/>
       <c r="B605" s="8"/>
-      <c r="E605" s="10"/>
+      <c r="F605" s="10"/>
     </row>
     <row r="606" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A606" s="19"/>
       <c r="B606" s="8"/>
-      <c r="E606" s="10"/>
+      <c r="F606" s="10"/>
     </row>
     <row r="607" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A607" s="19"/>
       <c r="B607" s="8"/>
-      <c r="E607" s="10"/>
+      <c r="F607" s="10"/>
     </row>
     <row r="608" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="19"/>
       <c r="B608" s="8"/>
-      <c r="E608" s="10"/>
+      <c r="F608" s="10"/>
     </row>
     <row r="609" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A609" s="19"/>
       <c r="B609" s="8"/>
-      <c r="E609" s="10"/>
+      <c r="F609" s="10"/>
     </row>
     <row r="610" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="19"/>
       <c r="B610" s="8"/>
-      <c r="E610" s="10"/>
+      <c r="F610" s="10"/>
     </row>
     <row r="611" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="19"/>
       <c r="B611" s="8"/>
-      <c r="E611" s="10"/>
+      <c r="F611" s="10"/>
     </row>
     <row r="612" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A612" s="19"/>
       <c r="B612" s="8"/>
-      <c r="E612" s="10"/>
+      <c r="F612" s="10"/>
     </row>
     <row r="613" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="19"/>
       <c r="B613" s="8"/>
-      <c r="E613" s="10"/>
+      <c r="F613" s="10"/>
     </row>
     <row r="614" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="19"/>
       <c r="B614" s="8"/>
-      <c r="E614" s="10"/>
+      <c r="F614" s="10"/>
     </row>
     <row r="615" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A615" s="19"/>
       <c r="B615" s="8"/>
-      <c r="E615" s="10"/>
+      <c r="F615" s="10"/>
     </row>
     <row r="616" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A616" s="19"/>
       <c r="B616" s="8"/>
-      <c r="E616" s="10"/>
+      <c r="F616" s="10"/>
     </row>
     <row r="617" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A617" s="19"/>
       <c r="B617" s="8"/>
-      <c r="E617" s="10"/>
+      <c r="F617" s="10"/>
     </row>
     <row r="618" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A618" s="19"/>
       <c r="B618" s="8"/>
-      <c r="E618" s="10"/>
+      <c r="F618" s="10"/>
     </row>
     <row r="619" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A619" s="19"/>
       <c r="B619" s="8"/>
-      <c r="E619" s="10"/>
+      <c r="F619" s="10"/>
     </row>
     <row r="620" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A620" s="19"/>
       <c r="B620" s="8"/>
-      <c r="E620" s="10"/>
+      <c r="F620" s="10"/>
     </row>
     <row r="621" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="19"/>
       <c r="B621" s="8"/>
-      <c r="E621" s="10"/>
+      <c r="F621" s="10"/>
     </row>
     <row r="622" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="19"/>
       <c r="B622" s="8"/>
-      <c r="E622" s="10"/>
+      <c r="F622" s="10"/>
     </row>
     <row r="623" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="19"/>
       <c r="B623" s="8"/>
-      <c r="E623" s="10"/>
+      <c r="F623" s="10"/>
     </row>
     <row r="624" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A624" s="19"/>
       <c r="B624" s="8"/>
-      <c r="E624" s="10"/>
+      <c r="F624" s="10"/>
     </row>
     <row r="625" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="19"/>
       <c r="B625" s="8"/>
-      <c r="E625" s="10"/>
+      <c r="F625" s="10"/>
     </row>
     <row r="626" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A626" s="19"/>
       <c r="B626" s="8"/>
-      <c r="E626" s="10"/>
+      <c r="F626" s="10"/>
     </row>
     <row r="627" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A627" s="19"/>
       <c r="B627" s="8"/>
-      <c r="E627" s="10"/>
+      <c r="F627" s="10"/>
     </row>
     <row r="628" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A628" s="19"/>
       <c r="B628" s="8"/>
-      <c r="E628" s="10"/>
+      <c r="F628" s="10"/>
     </row>
     <row r="629" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A629" s="19"/>
       <c r="B629" s="8"/>
-      <c r="E629" s="10"/>
+      <c r="F629" s="10"/>
     </row>
     <row r="630" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A630" s="19"/>
       <c r="B630" s="8"/>
-      <c r="E630" s="10"/>
+      <c r="F630" s="10"/>
     </row>
     <row r="631" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A631" s="19"/>
       <c r="B631" s="8"/>
-      <c r="E631" s="10"/>
+      <c r="F631" s="10"/>
     </row>
     <row r="632" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A632" s="19"/>
       <c r="B632" s="8"/>
-      <c r="E632" s="10"/>
+      <c r="F632" s="10"/>
     </row>
     <row r="633" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A633" s="19"/>
       <c r="B633" s="8"/>
-      <c r="E633" s="10"/>
+      <c r="F633" s="10"/>
     </row>
     <row r="634" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A634" s="19"/>
       <c r="B634" s="8"/>
-      <c r="E634" s="10"/>
+      <c r="F634" s="10"/>
     </row>
     <row r="635" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A635" s="19"/>
       <c r="B635" s="8"/>
-      <c r="E635" s="10"/>
+      <c r="F635" s="10"/>
     </row>
     <row r="636" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A636" s="19"/>
       <c r="B636" s="8"/>
-      <c r="E636" s="10"/>
+      <c r="F636" s="10"/>
     </row>
     <row r="637" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A637" s="19"/>
       <c r="B637" s="8"/>
-      <c r="E637" s="10"/>
+      <c r="F637" s="10"/>
     </row>
     <row r="638" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A638" s="19"/>
       <c r="B638" s="8"/>
-      <c r="E638" s="10"/>
+      <c r="F638" s="10"/>
     </row>
     <row r="639" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A639" s="19"/>
       <c r="B639" s="8"/>
-      <c r="E639" s="10"/>
+      <c r="F639" s="10"/>
     </row>
     <row r="640" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A640" s="19"/>
       <c r="B640" s="8"/>
-      <c r="E640" s="10"/>
+      <c r="F640" s="10"/>
     </row>
     <row r="641" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="19"/>
       <c r="B641" s="8"/>
-      <c r="E641" s="10"/>
+      <c r="F641" s="10"/>
     </row>
     <row r="642" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A642" s="19"/>
       <c r="B642" s="8"/>
-      <c r="E642" s="10"/>
+      <c r="F642" s="10"/>
     </row>
     <row r="643" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="19"/>
       <c r="B643" s="8"/>
-      <c r="E643" s="10"/>
+      <c r="F643" s="10"/>
     </row>
     <row r="644" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A644" s="19"/>
       <c r="B644" s="8"/>
-      <c r="E644" s="10"/>
+      <c r="F644" s="10"/>
     </row>
     <row r="645" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A645" s="19"/>
       <c r="B645" s="8"/>
-      <c r="E645" s="10"/>
+      <c r="F645" s="10"/>
     </row>
     <row r="646" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A646" s="19"/>
       <c r="B646" s="8"/>
-      <c r="E646" s="10"/>
+      <c r="F646" s="10"/>
     </row>
     <row r="647" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A647" s="19"/>
       <c r="B647" s="8"/>
-      <c r="E647" s="10"/>
+      <c r="F647" s="10"/>
     </row>
     <row r="648" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A648" s="19"/>
       <c r="B648" s="8"/>
-      <c r="E648" s="10"/>
+      <c r="F648" s="10"/>
     </row>
     <row r="649" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A649" s="19"/>
       <c r="B649" s="8"/>
-      <c r="E649" s="10"/>
+      <c r="F649" s="10"/>
     </row>
     <row r="650" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A650" s="19"/>
       <c r="B650" s="8"/>
-      <c r="E650" s="10"/>
+      <c r="F650" s="10"/>
     </row>
     <row r="651" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A651" s="19"/>
       <c r="B651" s="8"/>
-      <c r="E651" s="10"/>
+      <c r="F651" s="10"/>
     </row>
     <row r="652" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A652" s="19"/>
       <c r="B652" s="8"/>
-      <c r="E652" s="10"/>
+      <c r="F652" s="10"/>
     </row>
     <row r="653" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A653" s="19"/>
       <c r="B653" s="8"/>
-      <c r="E653" s="10"/>
+      <c r="F653" s="10"/>
     </row>
     <row r="654" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A654" s="19"/>
       <c r="B654" s="8"/>
-      <c r="E654" s="10"/>
+      <c r="F654" s="10"/>
     </row>
     <row r="655" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A655" s="19"/>
       <c r="B655" s="8"/>
-      <c r="E655" s="10"/>
+      <c r="F655" s="10"/>
     </row>
     <row r="656" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A656" s="19"/>
       <c r="B656" s="8"/>
-      <c r="E656" s="10"/>
+      <c r="F656" s="10"/>
     </row>
     <row r="657" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A657" s="19"/>
       <c r="B657" s="8"/>
-      <c r="E657" s="10"/>
+      <c r="F657" s="10"/>
     </row>
     <row r="658" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A658" s="19"/>
       <c r="B658" s="8"/>
-      <c r="E658" s="10"/>
+      <c r="F658" s="10"/>
     </row>
     <row r="659" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A659" s="19"/>
       <c r="B659" s="8"/>
-      <c r="E659" s="10"/>
+      <c r="F659" s="10"/>
     </row>
     <row r="660" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A660" s="19"/>
       <c r="B660" s="8"/>
-      <c r="E660" s="10"/>
+      <c r="F660" s="10"/>
     </row>
     <row r="661" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A661" s="19"/>
       <c r="B661" s="8"/>
-      <c r="E661" s="10"/>
+      <c r="F661" s="10"/>
     </row>
     <row r="662" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A662" s="19"/>
       <c r="B662" s="8"/>
-      <c r="E662" s="10"/>
+      <c r="F662" s="10"/>
     </row>
     <row r="663" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A663" s="19"/>
       <c r="B663" s="8"/>
-      <c r="E663" s="10"/>
+      <c r="F663" s="10"/>
     </row>
     <row r="664" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A664" s="19"/>
       <c r="B664" s="8"/>
-      <c r="E664" s="10"/>
+      <c r="F664" s="10"/>
     </row>
     <row r="665" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A665" s="19"/>
       <c r="B665" s="8"/>
-      <c r="E665" s="10"/>
+      <c r="F665" s="10"/>
     </row>
     <row r="666" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A666" s="19"/>
       <c r="B666" s="8"/>
-      <c r="E666" s="10"/>
+      <c r="F666" s="10"/>
     </row>
     <row r="667" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A667" s="19"/>
       <c r="B667" s="8"/>
-      <c r="E667" s="10"/>
+      <c r="F667" s="10"/>
     </row>
     <row r="668" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A668" s="19"/>
       <c r="B668" s="8"/>
-      <c r="E668" s="10"/>
+      <c r="F668" s="10"/>
     </row>
     <row r="669" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A669" s="19"/>
       <c r="B669" s="8"/>
-      <c r="E669" s="10"/>
+      <c r="F669" s="10"/>
     </row>
     <row r="670" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A670" s="19"/>
       <c r="B670" s="8"/>
-      <c r="E670" s="10"/>
+      <c r="F670" s="10"/>
     </row>
     <row r="671" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A671" s="19"/>
       <c r="B671" s="8"/>
-      <c r="E671" s="10"/>
+      <c r="F671" s="10"/>
     </row>
     <row r="672" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A672" s="19"/>
       <c r="B672" s="8"/>
-      <c r="E672" s="10"/>
+      <c r="F672" s="10"/>
     </row>
     <row r="673" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A673" s="19"/>
       <c r="B673" s="8"/>
-      <c r="E673" s="10"/>
+      <c r="F673" s="10"/>
     </row>
     <row r="674" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A674" s="19"/>
       <c r="B674" s="8"/>
-      <c r="E674" s="10"/>
+      <c r="F674" s="10"/>
     </row>
     <row r="675" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A675" s="19"/>
       <c r="B675" s="8"/>
-      <c r="E675" s="10"/>
+      <c r="F675" s="10"/>
     </row>
     <row r="676" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A676" s="19"/>
       <c r="B676" s="8"/>
-      <c r="E676" s="10"/>
+      <c r="F676" s="10"/>
     </row>
     <row r="677" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A677" s="19"/>
       <c r="B677" s="8"/>
-      <c r="E677" s="10"/>
+      <c r="F677" s="10"/>
     </row>
     <row r="678" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A678" s="19"/>
       <c r="B678" s="8"/>
-      <c r="E678" s="10"/>
+      <c r="F678" s="10"/>
     </row>
     <row r="679" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A679" s="19"/>
       <c r="B679" s="8"/>
-      <c r="E679" s="10"/>
+      <c r="F679" s="10"/>
     </row>
     <row r="680" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A680" s="19"/>
       <c r="B680" s="8"/>
-      <c r="E680" s="10"/>
+      <c r="F680" s="10"/>
     </row>
     <row r="681" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A681" s="19"/>
       <c r="B681" s="8"/>
-      <c r="E681" s="10"/>
+      <c r="F681" s="10"/>
     </row>
     <row r="682" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A682" s="19"/>
       <c r="B682" s="8"/>
-      <c r="E682" s="10"/>
+      <c r="F682" s="10"/>
     </row>
     <row r="683" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A683" s="19"/>
       <c r="B683" s="8"/>
-      <c r="E683" s="10"/>
+      <c r="F683" s="10"/>
     </row>
     <row r="684" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A684" s="19"/>
       <c r="B684" s="8"/>
-      <c r="E684" s="10"/>
+      <c r="F684" s="10"/>
     </row>
     <row r="685" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A685" s="19"/>
       <c r="B685" s="8"/>
-      <c r="E685" s="10"/>
+      <c r="F685" s="10"/>
     </row>
     <row r="686" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A686" s="19"/>
       <c r="B686" s="8"/>
-      <c r="E686" s="10"/>
+      <c r="F686" s="10"/>
     </row>
     <row r="687" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A687" s="19"/>
       <c r="B687" s="8"/>
-      <c r="E687" s="10"/>
+      <c r="F687" s="10"/>
     </row>
     <row r="688" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A688" s="19"/>
       <c r="B688" s="8"/>
-      <c r="E688" s="10"/>
+      <c r="F688" s="10"/>
     </row>
     <row r="689" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A689" s="19"/>
       <c r="B689" s="8"/>
-      <c r="E689" s="10"/>
+      <c r="F689" s="10"/>
     </row>
     <row r="690" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A690" s="19"/>
       <c r="B690" s="8"/>
-      <c r="E690" s="10"/>
+      <c r="F690" s="10"/>
     </row>
     <row r="691" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A691" s="19"/>
       <c r="B691" s="8"/>
-      <c r="E691" s="10"/>
+      <c r="F691" s="10"/>
     </row>
     <row r="692" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A692" s="19"/>
       <c r="B692" s="8"/>
-      <c r="E692" s="10"/>
+      <c r="F692" s="10"/>
     </row>
     <row r="693" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A693" s="19"/>
       <c r="B693" s="8"/>
-      <c r="E693" s="10"/>
+      <c r="F693" s="10"/>
     </row>
     <row r="694" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A694" s="19"/>
       <c r="B694" s="8"/>
-      <c r="E694" s="10"/>
+      <c r="F694" s="10"/>
     </row>
     <row r="695" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A695" s="19"/>
       <c r="B695" s="8"/>
-      <c r="E695" s="10"/>
+      <c r="F695" s="10"/>
     </row>
     <row r="696" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A696" s="19"/>
       <c r="B696" s="8"/>
-      <c r="E696" s="10"/>
+      <c r="F696" s="10"/>
     </row>
     <row r="697" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A697" s="19"/>
       <c r="B697" s="8"/>
-      <c r="E697" s="10"/>
+      <c r="F697" s="10"/>
     </row>
     <row r="698" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A698" s="19"/>
       <c r="B698" s="8"/>
-      <c r="E698" s="10"/>
+      <c r="F698" s="10"/>
     </row>
     <row r="699" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A699" s="19"/>
       <c r="B699" s="8"/>
-      <c r="E699" s="10"/>
+      <c r="F699" s="10"/>
     </row>
     <row r="700" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A700" s="19"/>
       <c r="B700" s="8"/>
-      <c r="E700" s="10"/>
+      <c r="F700" s="10"/>
     </row>
     <row r="701" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A701" s="19"/>
       <c r="B701" s="8"/>
-      <c r="E701" s="10"/>
+      <c r="F701" s="10"/>
     </row>
     <row r="702" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A702" s="19"/>
       <c r="B702" s="8"/>
-      <c r="E702" s="10"/>
+      <c r="F702" s="10"/>
     </row>
     <row r="703" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A703" s="19"/>
       <c r="B703" s="8"/>
-      <c r="E703" s="10"/>
+      <c r="F703" s="10"/>
     </row>
     <row r="704" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A704" s="19"/>
       <c r="B704" s="8"/>
-      <c r="E704" s="10"/>
+      <c r="F704" s="10"/>
     </row>
     <row r="705" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A705" s="19"/>
       <c r="B705" s="8"/>
-      <c r="E705" s="10"/>
+      <c r="F705" s="10"/>
     </row>
     <row r="706" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A706" s="19"/>
       <c r="B706" s="8"/>
-      <c r="E706" s="10"/>
+      <c r="F706" s="10"/>
     </row>
     <row r="707" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A707" s="19"/>
       <c r="B707" s="8"/>
-      <c r="E707" s="10"/>
+      <c r="F707" s="10"/>
     </row>
     <row r="708" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A708" s="19"/>
       <c r="B708" s="8"/>
-      <c r="E708" s="10"/>
+      <c r="F708" s="10"/>
     </row>
     <row r="709" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A709" s="19"/>
       <c r="B709" s="8"/>
-      <c r="E709" s="10"/>
+      <c r="F709" s="10"/>
     </row>
     <row r="710" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A710" s="19"/>
       <c r="B710" s="8"/>
-      <c r="E710" s="10"/>
+      <c r="F710" s="10"/>
     </row>
     <row r="711" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A711" s="19"/>
       <c r="B711" s="8"/>
-      <c r="E711" s="10"/>
+      <c r="F711" s="10"/>
     </row>
     <row r="712" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A712" s="19"/>
       <c r="B712" s="8"/>
-      <c r="E712" s="10"/>
+      <c r="F712" s="10"/>
     </row>
     <row r="713" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A713" s="19"/>
       <c r="B713" s="8"/>
-      <c r="E713" s="10"/>
+      <c r="F713" s="10"/>
     </row>
     <row r="714" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A714" s="19"/>
       <c r="B714" s="8"/>
-      <c r="E714" s="10"/>
+      <c r="F714" s="10"/>
     </row>
     <row r="715" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A715" s="19"/>
       <c r="B715" s="8"/>
-      <c r="E715" s="10"/>
+      <c r="F715" s="10"/>
     </row>
     <row r="716" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A716" s="19"/>
       <c r="B716" s="8"/>
-      <c r="E716" s="10"/>
+      <c r="F716" s="10"/>
     </row>
     <row r="717" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A717" s="19"/>
       <c r="B717" s="8"/>
-      <c r="E717" s="10"/>
+      <c r="F717" s="10"/>
     </row>
     <row r="718" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A718" s="19"/>
       <c r="B718" s="8"/>
-      <c r="E718" s="10"/>
+      <c r="F718" s="10"/>
     </row>
     <row r="719" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A719" s="19"/>
       <c r="B719" s="8"/>
-      <c r="E719" s="10"/>
+      <c r="F719" s="10"/>
     </row>
     <row r="720" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A720" s="19"/>
       <c r="B720" s="8"/>
-      <c r="E720" s="10"/>
+      <c r="F720" s="10"/>
     </row>
     <row r="721" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A721" s="19"/>
       <c r="B721" s="8"/>
-      <c r="E721" s="10"/>
+      <c r="F721" s="10"/>
     </row>
     <row r="722" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A722" s="19"/>
       <c r="B722" s="8"/>
-      <c r="E722" s="10"/>
+      <c r="F722" s="10"/>
     </row>
     <row r="723" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A723" s="19"/>
       <c r="B723" s="8"/>
-      <c r="E723" s="10"/>
+      <c r="F723" s="10"/>
     </row>
     <row r="724" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A724" s="19"/>
       <c r="B724" s="8"/>
-      <c r="E724" s="10"/>
+      <c r="F724" s="10"/>
     </row>
     <row r="725" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A725" s="19"/>
       <c r="B725" s="8"/>
-      <c r="E725" s="10"/>
+      <c r="F725" s="10"/>
     </row>
     <row r="726" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A726" s="19"/>
       <c r="B726" s="8"/>
-      <c r="E726" s="10"/>
+      <c r="F726" s="10"/>
     </row>
     <row r="727" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A727" s="19"/>
       <c r="B727" s="8"/>
-      <c r="E727" s="10"/>
+      <c r="F727" s="10"/>
     </row>
     <row r="728" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A728" s="19"/>
       <c r="B728" s="8"/>
-      <c r="E728" s="10"/>
+      <c r="F728" s="10"/>
     </row>
     <row r="729" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A729" s="19"/>
       <c r="B729" s="8"/>
-      <c r="E729" s="10"/>
+      <c r="F729" s="10"/>
     </row>
     <row r="730" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A730" s="19"/>
       <c r="B730" s="8"/>
-      <c r="E730" s="10"/>
+      <c r="F730" s="10"/>
     </row>
     <row r="731" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A731" s="19"/>
       <c r="B731" s="8"/>
-      <c r="E731" s="10"/>
+      <c r="F731" s="10"/>
     </row>
     <row r="732" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A732" s="19"/>
       <c r="B732" s="8"/>
-      <c r="E732" s="10"/>
+      <c r="F732" s="10"/>
     </row>
     <row r="733" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A733" s="19"/>
       <c r="B733" s="8"/>
-      <c r="E733" s="10"/>
+      <c r="F733" s="10"/>
     </row>
     <row r="734" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A734" s="19"/>
       <c r="B734" s="8"/>
-      <c r="E734" s="10"/>
+      <c r="F734" s="10"/>
     </row>
     <row r="735" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A735" s="19"/>
       <c r="B735" s="8"/>
-      <c r="E735" s="10"/>
+      <c r="F735" s="10"/>
     </row>
     <row r="736" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A736" s="19"/>
       <c r="B736" s="8"/>
-      <c r="E736" s="10"/>
+      <c r="F736" s="10"/>
     </row>
     <row r="737" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A737" s="19"/>
       <c r="B737" s="8"/>
-      <c r="E737" s="10"/>
+      <c r="F737" s="10"/>
     </row>
     <row r="738" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A738" s="19"/>
       <c r="B738" s="8"/>
-      <c r="E738" s="10"/>
+      <c r="F738" s="10"/>
     </row>
     <row r="739" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A739" s="19"/>
       <c r="B739" s="8"/>
-      <c r="E739" s="10"/>
+      <c r="F739" s="10"/>
     </row>
     <row r="740" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A740" s="19"/>
       <c r="B740" s="8"/>
-      <c r="E740" s="10"/>
+      <c r="F740" s="10"/>
     </row>
     <row r="741" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A741" s="19"/>
       <c r="B741" s="8"/>
-      <c r="E741" s="10"/>
+      <c r="F741" s="10"/>
     </row>
     <row r="742" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A742" s="19"/>
       <c r="B742" s="8"/>
-      <c r="E742" s="10"/>
+      <c r="F742" s="10"/>
     </row>
     <row r="743" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A743" s="19"/>
       <c r="B743" s="8"/>
-      <c r="E743" s="10"/>
+      <c r="F743" s="10"/>
     </row>
     <row r="744" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A744" s="19"/>
       <c r="B744" s="8"/>
-      <c r="E744" s="10"/>
+      <c r="F744" s="10"/>
     </row>
     <row r="745" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A745" s="19"/>
       <c r="B745" s="8"/>
-      <c r="E745" s="10"/>
+      <c r="F745" s="10"/>
     </row>
     <row r="746" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A746" s="19"/>
       <c r="B746" s="8"/>
-      <c r="E746" s="10"/>
+      <c r="F746" s="10"/>
     </row>
     <row r="747" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A747" s="19"/>
       <c r="B747" s="8"/>
-      <c r="E747" s="10"/>
+      <c r="F747" s="10"/>
     </row>
     <row r="748" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A748" s="19"/>
       <c r="B748" s="8"/>
-      <c r="E748" s="10"/>
+      <c r="F748" s="10"/>
     </row>
     <row r="749" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A749" s="19"/>
       <c r="B749" s="8"/>
-      <c r="E749" s="10"/>
+      <c r="F749" s="10"/>
     </row>
     <row r="750" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A750" s="19"/>
       <c r="B750" s="8"/>
-      <c r="E750" s="10"/>
+      <c r="F750" s="10"/>
     </row>
     <row r="751" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A751" s="19"/>
       <c r="B751" s="8"/>
-      <c r="E751" s="10"/>
+      <c r="F751" s="10"/>
     </row>
     <row r="752" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A752" s="19"/>
       <c r="B752" s="8"/>
-      <c r="E752" s="10"/>
+      <c r="F752" s="10"/>
     </row>
     <row r="753" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A753" s="19"/>
       <c r="B753" s="8"/>
-      <c r="E753" s="10"/>
+      <c r="F753" s="10"/>
     </row>
     <row r="754" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A754" s="19"/>
       <c r="B754" s="8"/>
-      <c r="E754" s="10"/>
+      <c r="F754" s="10"/>
     </row>
     <row r="755" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A755" s="19"/>
       <c r="B755" s="8"/>
-      <c r="E755" s="10"/>
+      <c r="F755" s="10"/>
     </row>
     <row r="756" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A756" s="19"/>
       <c r="B756" s="8"/>
-      <c r="E756" s="10"/>
+      <c r="F756" s="10"/>
     </row>
     <row r="757" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A757" s="19"/>
       <c r="B757" s="8"/>
-      <c r="E757" s="10"/>
+      <c r="F757" s="10"/>
     </row>
     <row r="758" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A758" s="19"/>
       <c r="B758" s="8"/>
-      <c r="E758" s="10"/>
+      <c r="F758" s="10"/>
     </row>
     <row r="759" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A759" s="19"/>
       <c r="B759" s="8"/>
-      <c r="E759" s="10"/>
+      <c r="F759" s="10"/>
     </row>
     <row r="760" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A760" s="19"/>
       <c r="B760" s="8"/>
-      <c r="E760" s="10"/>
+      <c r="F760" s="10"/>
     </row>
     <row r="761" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A761" s="19"/>
       <c r="B761" s="8"/>
-      <c r="E761" s="10"/>
+      <c r="F761" s="10"/>
     </row>
     <row r="762" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A762" s="19"/>
       <c r="B762" s="8"/>
-      <c r="E762" s="10"/>
+      <c r="F762" s="10"/>
     </row>
     <row r="763" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A763" s="19"/>
       <c r="B763" s="8"/>
-      <c r="E763" s="10"/>
+      <c r="F763" s="10"/>
     </row>
     <row r="764" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A764" s="19"/>
       <c r="B764" s="8"/>
-      <c r="E764" s="10"/>
+      <c r="F764" s="10"/>
     </row>
     <row r="765" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A765" s="19"/>
       <c r="B765" s="8"/>
-      <c r="E765" s="10"/>
+      <c r="F765" s="10"/>
     </row>
     <row r="766" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A766" s="19"/>
       <c r="B766" s="8"/>
-      <c r="E766" s="10"/>
+      <c r="F766" s="10"/>
     </row>
     <row r="767" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A767" s="19"/>
       <c r="B767" s="8"/>
-      <c r="E767" s="10"/>
+      <c r="F767" s="10"/>
     </row>
     <row r="768" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A768" s="19"/>
       <c r="B768" s="8"/>
-      <c r="E768" s="10"/>
+      <c r="F768" s="10"/>
     </row>
     <row r="769" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A769" s="19"/>
       <c r="B769" s="8"/>
-      <c r="E769" s="10"/>
+      <c r="F769" s="10"/>
     </row>
     <row r="770" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A770" s="19"/>
       <c r="B770" s="8"/>
-      <c r="E770" s="10"/>
+      <c r="F770" s="10"/>
     </row>
     <row r="771" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A771" s="19"/>
       <c r="B771" s="8"/>
-      <c r="E771" s="10"/>
+      <c r="F771" s="10"/>
     </row>
     <row r="772" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A772" s="19"/>
       <c r="B772" s="8"/>
-      <c r="E772" s="10"/>
+      <c r="F772" s="10"/>
     </row>
     <row r="773" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A773" s="19"/>
       <c r="B773" s="8"/>
-      <c r="E773" s="10"/>
+      <c r="F773" s="10"/>
     </row>
     <row r="774" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A774" s="19"/>
       <c r="B774" s="8"/>
-      <c r="E774" s="10"/>
+      <c r="F774" s="10"/>
     </row>
     <row r="775" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A775" s="19"/>
       <c r="B775" s="8"/>
-      <c r="E775" s="10"/>
+      <c r="F775" s="10"/>
     </row>
     <row r="776" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A776" s="19"/>
       <c r="B776" s="8"/>
-      <c r="E776" s="10"/>
+      <c r="F776" s="10"/>
     </row>
     <row r="777" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A777" s="19"/>
       <c r="B777" s="8"/>
-      <c r="E777" s="10"/>
+      <c r="F777" s="10"/>
     </row>
     <row r="778" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A778" s="19"/>
       <c r="B778" s="8"/>
-      <c r="E778" s="10"/>
+      <c r="F778" s="10"/>
     </row>
     <row r="779" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A779" s="19"/>
       <c r="B779" s="8"/>
-      <c r="E779" s="10"/>
+      <c r="F779" s="10"/>
     </row>
     <row r="780" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A780" s="19"/>
       <c r="B780" s="8"/>
-      <c r="E780" s="10"/>
+      <c r="F780" s="10"/>
     </row>
     <row r="781" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A781" s="19"/>
       <c r="B781" s="8"/>
-      <c r="E781" s="10"/>
+      <c r="F781" s="10"/>
     </row>
     <row r="782" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A782" s="19"/>
       <c r="B782" s="8"/>
-      <c r="E782" s="10"/>
+      <c r="F782" s="10"/>
     </row>
     <row r="783" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A783" s="19"/>
       <c r="B783" s="8"/>
-      <c r="E783" s="10"/>
+      <c r="F783" s="10"/>
     </row>
     <row r="784" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A784" s="19"/>
       <c r="B784" s="8"/>
-      <c r="E784" s="10"/>
+      <c r="F784" s="10"/>
     </row>
     <row r="785" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A785" s="19"/>
       <c r="B785" s="8"/>
-      <c r="E785" s="10"/>
+      <c r="F785" s="10"/>
     </row>
     <row r="786" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A786" s="19"/>
       <c r="B786" s="8"/>
-      <c r="E786" s="10"/>
+      <c r="F786" s="10"/>
     </row>
     <row r="787" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A787" s="19"/>
       <c r="B787" s="8"/>
-      <c r="E787" s="10"/>
+      <c r="F787" s="10"/>
     </row>
     <row r="788" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A788" s="19"/>
       <c r="B788" s="8"/>
-      <c r="E788" s="10"/>
+      <c r="F788" s="10"/>
     </row>
     <row r="789" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A789" s="19"/>
       <c r="B789" s="8"/>
-      <c r="E789" s="10"/>
+      <c r="F789" s="10"/>
     </row>
     <row r="790" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A790" s="19"/>
       <c r="B790" s="8"/>
-      <c r="E790" s="10"/>
+      <c r="F790" s="10"/>
     </row>
     <row r="791" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A791" s="19"/>
       <c r="B791" s="8"/>
-      <c r="E791" s="10"/>
+      <c r="F791" s="10"/>
     </row>
     <row r="792" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A792" s="19"/>
       <c r="B792" s="8"/>
-      <c r="E792" s="10"/>
+      <c r="F792" s="10"/>
     </row>
     <row r="793" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A793" s="19"/>
       <c r="B793" s="8"/>
-      <c r="E793" s="10"/>
+      <c r="F793" s="10"/>
     </row>
     <row r="794" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A794" s="19"/>
       <c r="B794" s="8"/>
-      <c r="E794" s="10"/>
+      <c r="F794" s="10"/>
     </row>
     <row r="795" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A795" s="19"/>
       <c r="B795" s="8"/>
-      <c r="E795" s="10"/>
+      <c r="F795" s="10"/>
     </row>
     <row r="796" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A796" s="19"/>
       <c r="B796" s="8"/>
-      <c r="E796" s="10"/>
+      <c r="F796" s="10"/>
     </row>
     <row r="797" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A797" s="19"/>
       <c r="B797" s="8"/>
-      <c r="E797" s="10"/>
+      <c r="F797" s="10"/>
     </row>
     <row r="798" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A798" s="19"/>
       <c r="B798" s="8"/>
-      <c r="E798" s="10"/>
+      <c r="F798" s="10"/>
     </row>
     <row r="799" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A799" s="19"/>
       <c r="B799" s="8"/>
-      <c r="E799" s="10"/>
+      <c r="F799" s="10"/>
     </row>
     <row r="800" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A800" s="19"/>
       <c r="B800" s="8"/>
-      <c r="E800" s="10"/>
+      <c r="F800" s="10"/>
     </row>
     <row r="801" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A801" s="19"/>
       <c r="B801" s="8"/>
-      <c r="E801" s="10"/>
+      <c r="F801" s="10"/>
     </row>
     <row r="802" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A802" s="19"/>
       <c r="B802" s="8"/>
-      <c r="E802" s="10"/>
+      <c r="F802" s="10"/>
     </row>
     <row r="803" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A803" s="19"/>
       <c r="B803" s="8"/>
-      <c r="E803" s="10"/>
+      <c r="F803" s="10"/>
     </row>
     <row r="804" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A804" s="19"/>
       <c r="B804" s="8"/>
-      <c r="E804" s="10"/>
+      <c r="F804" s="10"/>
     </row>
     <row r="805" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A805" s="19"/>
       <c r="B805" s="8"/>
-      <c r="E805" s="10"/>
+      <c r="F805" s="10"/>
     </row>
     <row r="806" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A806" s="19"/>
       <c r="B806" s="8"/>
-      <c r="E806" s="10"/>
+      <c r="F806" s="10"/>
     </row>
     <row r="807" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A807" s="19"/>
       <c r="B807" s="8"/>
-      <c r="E807" s="10"/>
+      <c r="F807" s="10"/>
     </row>
     <row r="808" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A808" s="19"/>
       <c r="B808" s="8"/>
-      <c r="E808" s="10"/>
+      <c r="F808" s="10"/>
     </row>
     <row r="809" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A809" s="19"/>
       <c r="B809" s="8"/>
-      <c r="E809" s="10"/>
+      <c r="F809" s="10"/>
     </row>
     <row r="810" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A810" s="19"/>
       <c r="B810" s="8"/>
-      <c r="E810" s="10"/>
+      <c r="F810" s="10"/>
     </row>
     <row r="811" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A811" s="19"/>
       <c r="B811" s="8"/>
-      <c r="E811" s="10"/>
+      <c r="F811" s="10"/>
     </row>
     <row r="812" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A812" s="19"/>
       <c r="B812" s="8"/>
-      <c r="E812" s="10"/>
+      <c r="F812" s="10"/>
     </row>
     <row r="813" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A813" s="19"/>
       <c r="B813" s="8"/>
-      <c r="E813" s="10"/>
+      <c r="F813" s="10"/>
     </row>
     <row r="814" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A814" s="19"/>
       <c r="B814" s="8"/>
-      <c r="E814" s="10"/>
+      <c r="F814" s="10"/>
     </row>
     <row r="815" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A815" s="19"/>
       <c r="B815" s="8"/>
-      <c r="E815" s="10"/>
+      <c r="F815" s="10"/>
     </row>
     <row r="816" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A816" s="19"/>
       <c r="B816" s="8"/>
-      <c r="E816" s="10"/>
+      <c r="F816" s="10"/>
     </row>
     <row r="817" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A817" s="19"/>
       <c r="B817" s="8"/>
-      <c r="E817" s="10"/>
+      <c r="F817" s="10"/>
     </row>
     <row r="818" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A818" s="19"/>
       <c r="B818" s="8"/>
-      <c r="E818" s="10"/>
+      <c r="F818" s="10"/>
     </row>
     <row r="819" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A819" s="19"/>
       <c r="B819" s="8"/>
-      <c r="E819" s="10"/>
+      <c r="F819" s="10"/>
     </row>
     <row r="820" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A820" s="19"/>
       <c r="B820" s="8"/>
-      <c r="E820" s="10"/>
+      <c r="F820" s="10"/>
     </row>
     <row r="821" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A821" s="19"/>
       <c r="B821" s="8"/>
-      <c r="E821" s="10"/>
+      <c r="F821" s="10"/>
     </row>
     <row r="822" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A822" s="19"/>
       <c r="B822" s="8"/>
-      <c r="E822" s="10"/>
+      <c r="F822" s="10"/>
     </row>
     <row r="823" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A823" s="19"/>
       <c r="B823" s="8"/>
-      <c r="E823" s="10"/>
+      <c r="F823" s="10"/>
     </row>
     <row r="824" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A824" s="19"/>
       <c r="B824" s="8"/>
-      <c r="E824" s="10"/>
+      <c r="F824" s="10"/>
     </row>
     <row r="825" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A825" s="19"/>
       <c r="B825" s="8"/>
-      <c r="E825" s="10"/>
+      <c r="F825" s="10"/>
     </row>
     <row r="826" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A826" s="19"/>
       <c r="B826" s="8"/>
-      <c r="E826" s="10"/>
+      <c r="F826" s="10"/>
     </row>
     <row r="827" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A827" s="19"/>
       <c r="B827" s="8"/>
-      <c r="E827" s="10"/>
+      <c r="F827" s="10"/>
     </row>
     <row r="828" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A828" s="19"/>
       <c r="B828" s="8"/>
-      <c r="E828" s="10"/>
+      <c r="F828" s="10"/>
     </row>
     <row r="829" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A829" s="19"/>
       <c r="B829" s="8"/>
-      <c r="E829" s="10"/>
+      <c r="F829" s="10"/>
     </row>
     <row r="830" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A830" s="19"/>
       <c r="B830" s="8"/>
-      <c r="E830" s="10"/>
+      <c r="F830" s="10"/>
     </row>
     <row r="831" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A831" s="19"/>
       <c r="B831" s="8"/>
-      <c r="E831" s="10"/>
+      <c r="F831" s="10"/>
     </row>
     <row r="832" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A832" s="19"/>
       <c r="B832" s="8"/>
-      <c r="E832" s="10"/>
+      <c r="F832" s="10"/>
     </row>
     <row r="833" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A833" s="19"/>
       <c r="B833" s="8"/>
-      <c r="E833" s="10"/>
+      <c r="F833" s="10"/>
     </row>
     <row r="834" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A834" s="19"/>
       <c r="B834" s="8"/>
-      <c r="E834" s="10"/>
+      <c r="F834" s="10"/>
     </row>
     <row r="835" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A835" s="19"/>
       <c r="B835" s="8"/>
-      <c r="E835" s="10"/>
+      <c r="F835" s="10"/>
     </row>
     <row r="836" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A836" s="19"/>
       <c r="B836" s="8"/>
-      <c r="E836" s="10"/>
+      <c r="F836" s="10"/>
     </row>
     <row r="837" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A837" s="19"/>
       <c r="B837" s="8"/>
-      <c r="E837" s="10"/>
+      <c r="F837" s="10"/>
     </row>
     <row r="838" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A838" s="19"/>
       <c r="B838" s="8"/>
-      <c r="E838" s="10"/>
+      <c r="F838" s="10"/>
     </row>
     <row r="839" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A839" s="19"/>
       <c r="B839" s="8"/>
-      <c r="E839" s="10"/>
+      <c r="F839" s="10"/>
     </row>
     <row r="840" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A840" s="19"/>
       <c r="B840" s="8"/>
-      <c r="E840" s="10"/>
+      <c r="F840" s="10"/>
     </row>
     <row r="841" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A841" s="19"/>
       <c r="B841" s="8"/>
-      <c r="E841" s="10"/>
+      <c r="F841" s="10"/>
     </row>
     <row r="842" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A842" s="19"/>
       <c r="B842" s="8"/>
-      <c r="E842" s="10"/>
+      <c r="F842" s="10"/>
     </row>
     <row r="843" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A843" s="19"/>
       <c r="B843" s="8"/>
-      <c r="E843" s="10"/>
+      <c r="F843" s="10"/>
     </row>
     <row r="844" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A844" s="19"/>
       <c r="B844" s="8"/>
-      <c r="E844" s="10"/>
+      <c r="F844" s="10"/>
     </row>
     <row r="845" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A845" s="19"/>
       <c r="B845" s="8"/>
-      <c r="E845" s="10"/>
+      <c r="F845" s="10"/>
     </row>
     <row r="846" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A846" s="19"/>
       <c r="B846" s="8"/>
-      <c r="E846" s="10"/>
+      <c r="F846" s="10"/>
     </row>
     <row r="847" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A847" s="19"/>
       <c r="B847" s="8"/>
-      <c r="E847" s="10"/>
+      <c r="F847" s="10"/>
     </row>
     <row r="848" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A848" s="19"/>
       <c r="B848" s="8"/>
-      <c r="E848" s="10"/>
+      <c r="F848" s="10"/>
     </row>
     <row r="849" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A849" s="19"/>
       <c r="B849" s="8"/>
-      <c r="E849" s="10"/>
+      <c r="F849" s="10"/>
     </row>
     <row r="850" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A850" s="19"/>
       <c r="B850" s="8"/>
-      <c r="E850" s="10"/>
+      <c r="F850" s="10"/>
     </row>
     <row r="851" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A851" s="19"/>
       <c r="B851" s="8"/>
-      <c r="E851" s="10"/>
+      <c r="F851" s="10"/>
     </row>
     <row r="852" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A852" s="19"/>
       <c r="B852" s="8"/>
-      <c r="E852" s="10"/>
+      <c r="F852" s="10"/>
     </row>
     <row r="853" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A853" s="19"/>
       <c r="B853" s="8"/>
-      <c r="E853" s="10"/>
+      <c r="F853" s="10"/>
     </row>
     <row r="854" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A854" s="19"/>
       <c r="B854" s="8"/>
-      <c r="E854" s="10"/>
+      <c r="F854" s="10"/>
     </row>
     <row r="855" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A855" s="19"/>
       <c r="B855" s="8"/>
-      <c r="E855" s="10"/>
+      <c r="F855" s="10"/>
     </row>
     <row r="856" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A856" s="19"/>
       <c r="B856" s="8"/>
-      <c r="E856" s="10"/>
+      <c r="F856" s="10"/>
     </row>
     <row r="857" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A857" s="19"/>
       <c r="B857" s="8"/>
-      <c r="E857" s="10"/>
+      <c r="F857" s="10"/>
     </row>
     <row r="858" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A858" s="19"/>
       <c r="B858" s="8"/>
-      <c r="E858" s="10"/>
+      <c r="F858" s="10"/>
     </row>
     <row r="859" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A859" s="19"/>
       <c r="B859" s="8"/>
-      <c r="E859" s="10"/>
+      <c r="F859" s="10"/>
     </row>
     <row r="860" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A860" s="19"/>
       <c r="B860" s="8"/>
-      <c r="E860" s="10"/>
+      <c r="F860" s="10"/>
     </row>
     <row r="861" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A861" s="19"/>
       <c r="B861" s="8"/>
-      <c r="E861" s="10"/>
+      <c r="F861" s="10"/>
     </row>
     <row r="862" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A862" s="19"/>
       <c r="B862" s="8"/>
-      <c r="E862" s="10"/>
+      <c r="F862" s="10"/>
     </row>
     <row r="863" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A863" s="19"/>
       <c r="B863" s="8"/>
-      <c r="E863" s="10"/>
+      <c r="F863" s="10"/>
     </row>
     <row r="864" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A864" s="19"/>
       <c r="B864" s="8"/>
-      <c r="E864" s="10"/>
+      <c r="F864" s="10"/>
     </row>
     <row r="865" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A865" s="19"/>
       <c r="B865" s="8"/>
-      <c r="E865" s="10"/>
+      <c r="F865" s="10"/>
     </row>
     <row r="866" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A866" s="19"/>
       <c r="B866" s="8"/>
-      <c r="E866" s="10"/>
+      <c r="F866" s="10"/>
     </row>
     <row r="867" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A867" s="19"/>
       <c r="B867" s="8"/>
-      <c r="E867" s="10"/>
+      <c r="F867" s="10"/>
     </row>
     <row r="868" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A868" s="19"/>
       <c r="B868" s="8"/>
-      <c r="E868" s="10"/>
+      <c r="F868" s="10"/>
     </row>
     <row r="869" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A869" s="19"/>
       <c r="B869" s="8"/>
-      <c r="E869" s="10"/>
+      <c r="F869" s="10"/>
     </row>
     <row r="870" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A870" s="19"/>
       <c r="B870" s="8"/>
-      <c r="E870" s="10"/>
+      <c r="F870" s="10"/>
     </row>
     <row r="871" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A871" s="19"/>
       <c r="B871" s="8"/>
-      <c r="E871" s="10"/>
+      <c r="F871" s="10"/>
     </row>
     <row r="872" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A872" s="19"/>
       <c r="B872" s="8"/>
-      <c r="E872" s="10"/>
+      <c r="F872" s="10"/>
     </row>
     <row r="873" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A873" s="19"/>
       <c r="B873" s="8"/>
-      <c r="E873" s="10"/>
+      <c r="F873" s="10"/>
     </row>
     <row r="874" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A874" s="19"/>
       <c r="B874" s="8"/>
-      <c r="E874" s="10"/>
+      <c r="F874" s="10"/>
     </row>
     <row r="875" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A875" s="19"/>
       <c r="B875" s="8"/>
-      <c r="E875" s="10"/>
+      <c r="F875" s="10"/>
     </row>
     <row r="876" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A876" s="19"/>
       <c r="B876" s="8"/>
-      <c r="E876" s="10"/>
+      <c r="F876" s="10"/>
     </row>
     <row r="877" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A877" s="19"/>
       <c r="B877" s="8"/>
-      <c r="E877" s="10"/>
+      <c r="F877" s="10"/>
     </row>
     <row r="878" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A878" s="19"/>
       <c r="B878" s="8"/>
-      <c r="E878" s="10"/>
+      <c r="F878" s="10"/>
     </row>
     <row r="879" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A879" s="19"/>
       <c r="B879" s="8"/>
-      <c r="E879" s="10"/>
+      <c r="F879" s="10"/>
     </row>
     <row r="880" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A880" s="19"/>
       <c r="B880" s="8"/>
-      <c r="E880" s="10"/>
+      <c r="F880" s="10"/>
     </row>
     <row r="881" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A881" s="19"/>
       <c r="B881" s="8"/>
-      <c r="E881" s="10"/>
+      <c r="F881" s="10"/>
     </row>
     <row r="882" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A882" s="19"/>
       <c r="B882" s="8"/>
-      <c r="E882" s="10"/>
+      <c r="F882" s="10"/>
     </row>
     <row r="883" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A883" s="19"/>
       <c r="B883" s="8"/>
-      <c r="E883" s="10"/>
+      <c r="F883" s="10"/>
     </row>
     <row r="884" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A884" s="19"/>
       <c r="B884" s="8"/>
-      <c r="E884" s="10"/>
+      <c r="F884" s="10"/>
     </row>
     <row r="885" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A885" s="19"/>
       <c r="B885" s="8"/>
-      <c r="E885" s="10"/>
+      <c r="F885" s="10"/>
     </row>
     <row r="886" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A886" s="19"/>
       <c r="B886" s="8"/>
-      <c r="E886" s="10"/>
+      <c r="F886" s="10"/>
     </row>
     <row r="887" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A887" s="19"/>
       <c r="B887" s="8"/>
-      <c r="E887" s="10"/>
+      <c r="F887" s="10"/>
     </row>
     <row r="888" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A888" s="19"/>
       <c r="B888" s="8"/>
-      <c r="E888" s="10"/>
+      <c r="F888" s="10"/>
     </row>
     <row r="889" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A889" s="19"/>
       <c r="B889" s="8"/>
-      <c r="E889" s="10"/>
+      <c r="F889" s="10"/>
     </row>
     <row r="890" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A890" s="19"/>
       <c r="B890" s="8"/>
-      <c r="E890" s="10"/>
+      <c r="F890" s="10"/>
     </row>
     <row r="891" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A891" s="19"/>
       <c r="B891" s="8"/>
-      <c r="E891" s="10"/>
+      <c r="F891" s="10"/>
     </row>
     <row r="892" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A892" s="19"/>
       <c r="B892" s="8"/>
-      <c r="E892" s="10"/>
+      <c r="F892" s="10"/>
     </row>
     <row r="893" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A893" s="19"/>
       <c r="B893" s="8"/>
-      <c r="E893" s="10"/>
+      <c r="F893" s="10"/>
     </row>
     <row r="894" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A894" s="19"/>
       <c r="B894" s="8"/>
-      <c r="E894" s="10"/>
+      <c r="F894" s="10"/>
     </row>
     <row r="895" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A895" s="19"/>
       <c r="B895" s="8"/>
-      <c r="E895" s="10"/>
+      <c r="F895" s="10"/>
     </row>
     <row r="896" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A896" s="19"/>
       <c r="B896" s="8"/>
-      <c r="E896" s="10"/>
+      <c r="F896" s="10"/>
     </row>
     <row r="897" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A897" s="19"/>
       <c r="B897" s="8"/>
-      <c r="E897" s="10"/>
+      <c r="F897" s="10"/>
     </row>
     <row r="898" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A898" s="19"/>
       <c r="B898" s="8"/>
-      <c r="E898" s="10"/>
+      <c r="F898" s="10"/>
     </row>
     <row r="899" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A899" s="19"/>
       <c r="B899" s="8"/>
-      <c r="E899" s="10"/>
+      <c r="F899" s="10"/>
     </row>
     <row r="900" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A900" s="19"/>
       <c r="B900" s="8"/>
-      <c r="E900" s="10"/>
+      <c r="F900" s="10"/>
     </row>
     <row r="901" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A901" s="19"/>
       <c r="B901" s="8"/>
-      <c r="E901" s="10"/>
+      <c r="F901" s="10"/>
     </row>
     <row r="902" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A902" s="19"/>
       <c r="B902" s="8"/>
-      <c r="E902" s="10"/>
+      <c r="F902" s="10"/>
     </row>
     <row r="903" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A903" s="19"/>
       <c r="B903" s="8"/>
-      <c r="E903" s="10"/>
+      <c r="F903" s="10"/>
     </row>
     <row r="904" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A904" s="19"/>
       <c r="B904" s="8"/>
-      <c r="E904" s="10"/>
+      <c r="F904" s="10"/>
     </row>
     <row r="905" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A905" s="19"/>
       <c r="B905" s="8"/>
-      <c r="E905" s="10"/>
+      <c r="F905" s="10"/>
     </row>
     <row r="906" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A906" s="19"/>
       <c r="B906" s="8"/>
-      <c r="E906" s="10"/>
+      <c r="F906" s="10"/>
     </row>
     <row r="907" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A907" s="19"/>
       <c r="B907" s="8"/>
-      <c r="E907" s="10"/>
+      <c r="F907" s="10"/>
     </row>
     <row r="908" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A908" s="19"/>
       <c r="B908" s="8"/>
-      <c r="E908" s="10"/>
+      <c r="F908" s="10"/>
     </row>
     <row r="909" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A909" s="19"/>
       <c r="B909" s="8"/>
-      <c r="E909" s="10"/>
+      <c r="F909" s="10"/>
     </row>
     <row r="910" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A910" s="19"/>
       <c r="B910" s="8"/>
-      <c r="E910" s="10"/>
+      <c r="F910" s="10"/>
     </row>
     <row r="911" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A911" s="19"/>
       <c r="B911" s="8"/>
-      <c r="E911" s="10"/>
+      <c r="F911" s="10"/>
     </row>
     <row r="912" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A912" s="19"/>
       <c r="B912" s="8"/>
-      <c r="E912" s="10"/>
+      <c r="F912" s="10"/>
     </row>
     <row r="913" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A913" s="19"/>
       <c r="B913" s="8"/>
-      <c r="E913" s="10"/>
+      <c r="F913" s="10"/>
     </row>
     <row r="914" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A914" s="19"/>
       <c r="B914" s="8"/>
-      <c r="E914" s="10"/>
+      <c r="F914" s="10"/>
     </row>
     <row r="915" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A915" s="19"/>
       <c r="B915" s="8"/>
-      <c r="E915" s="10"/>
+      <c r="F915" s="10"/>
     </row>
     <row r="916" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A916" s="19"/>
       <c r="B916" s="8"/>
-      <c r="E916" s="10"/>
+      <c r="F916" s="10"/>
     </row>
     <row r="917" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A917" s="19"/>
       <c r="B917" s="8"/>
-      <c r="E917" s="10"/>
+      <c r="F917" s="10"/>
     </row>
     <row r="918" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A918" s="19"/>
       <c r="B918" s="8"/>
-      <c r="E918" s="10"/>
+      <c r="F918" s="10"/>
     </row>
     <row r="919" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A919" s="19"/>
       <c r="B919" s="8"/>
-      <c r="E919" s="10"/>
+      <c r="F919" s="10"/>
     </row>
     <row r="920" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A920" s="19"/>
       <c r="B920" s="8"/>
-      <c r="E920" s="10"/>
+      <c r="F920" s="10"/>
     </row>
     <row r="921" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A921" s="19"/>
       <c r="B921" s="8"/>
-      <c r="E921" s="10"/>
+      <c r="F921" s="10"/>
     </row>
     <row r="922" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A922" s="19"/>
       <c r="B922" s="8"/>
-      <c r="E922" s="10"/>
+      <c r="F922" s="10"/>
     </row>
     <row r="923" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A923" s="19"/>
       <c r="B923" s="8"/>
-      <c r="E923" s="10"/>
+      <c r="F923" s="10"/>
     </row>
     <row r="924" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A924" s="19"/>
       <c r="B924" s="8"/>
-      <c r="E924" s="10"/>
+      <c r="F924" s="10"/>
     </row>
     <row r="925" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A925" s="19"/>
       <c r="B925" s="8"/>
-      <c r="E925" s="10"/>
+      <c r="F925" s="10"/>
     </row>
     <row r="926" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A926" s="19"/>
       <c r="B926" s="8"/>
-      <c r="E926" s="10"/>
+      <c r="F926" s="10"/>
     </row>
     <row r="927" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A927" s="19"/>
       <c r="B927" s="8"/>
-      <c r="E927" s="10"/>
+      <c r="F927" s="10"/>
     </row>
     <row r="928" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A928" s="19"/>
       <c r="B928" s="8"/>
-      <c r="E928" s="10"/>
+      <c r="F928" s="10"/>
     </row>
     <row r="929" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A929" s="19"/>
       <c r="B929" s="8"/>
-      <c r="E929" s="10"/>
+      <c r="F929" s="10"/>
     </row>
     <row r="930" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A930" s="19"/>
       <c r="B930" s="8"/>
-      <c r="E930" s="10"/>
+      <c r="F930" s="10"/>
     </row>
     <row r="931" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A931" s="19"/>
       <c r="B931" s="8"/>
-      <c r="E931" s="10"/>
+      <c r="F931" s="10"/>
     </row>
     <row r="932" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A932" s="19"/>
       <c r="B932" s="8"/>
-      <c r="E932" s="10"/>
+      <c r="F932" s="10"/>
     </row>
     <row r="933" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A933" s="19"/>
       <c r="B933" s="8"/>
-      <c r="E933" s="10"/>
+      <c r="F933" s="10"/>
     </row>
     <row r="934" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A934" s="19"/>
       <c r="B934" s="8"/>
-      <c r="E934" s="10"/>
+      <c r="F934" s="10"/>
     </row>
     <row r="935" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A935" s="19"/>
       <c r="B935" s="8"/>
-      <c r="E935" s="10"/>
+      <c r="F935" s="10"/>
     </row>
     <row r="936" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A936" s="19"/>
       <c r="B936" s="8"/>
-      <c r="E936" s="10"/>
+      <c r="F936" s="10"/>
     </row>
     <row r="937" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A937" s="19"/>
       <c r="B937" s="8"/>
-      <c r="E937" s="10"/>
+      <c r="F937" s="10"/>
     </row>
     <row r="938" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A938" s="19"/>
       <c r="B938" s="8"/>
-      <c r="E938" s="10"/>
+      <c r="F938" s="10"/>
     </row>
     <row r="939" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A939" s="19"/>
       <c r="B939" s="8"/>
-      <c r="E939" s="10"/>
+      <c r="F939" s="10"/>
     </row>
     <row r="940" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A940" s="19"/>
       <c r="B940" s="8"/>
-      <c r="E940" s="10"/>
+      <c r="F940" s="10"/>
     </row>
     <row r="941" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A941" s="19"/>
       <c r="B941" s="8"/>
-      <c r="E941" s="10"/>
+      <c r="F941" s="10"/>
     </row>
     <row r="942" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A942" s="19"/>
       <c r="B942" s="8"/>
-      <c r="E942" s="10"/>
+      <c r="F942" s="10"/>
     </row>
     <row r="943" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A943" s="19"/>
       <c r="B943" s="8"/>
-      <c r="E943" s="10"/>
+      <c r="F943" s="10"/>
     </row>
     <row r="944" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A944" s="19"/>
       <c r="B944" s="8"/>
-      <c r="E944" s="10"/>
+      <c r="F944" s="10"/>
     </row>
     <row r="945" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A945" s="19"/>
       <c r="B945" s="8"/>
-      <c r="E945" s="10"/>
+      <c r="F945" s="10"/>
     </row>
     <row r="946" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A946" s="19"/>
       <c r="B946" s="8"/>
-      <c r="E946" s="10"/>
+      <c r="F946" s="10"/>
     </row>
     <row r="947" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A947" s="19"/>
       <c r="B947" s="8"/>
-      <c r="E947" s="10"/>
+      <c r="F947" s="10"/>
     </row>
     <row r="948" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A948" s="19"/>
       <c r="B948" s="8"/>
-      <c r="E948" s="10"/>
+      <c r="F948" s="10"/>
     </row>
     <row r="949" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A949" s="19"/>
       <c r="B949" s="8"/>
-      <c r="E949" s="10"/>
+      <c r="F949" s="10"/>
     </row>
     <row r="950" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A950" s="19"/>
       <c r="B950" s="8"/>
-      <c r="E950" s="10"/>
+      <c r="F950" s="10"/>
     </row>
     <row r="951" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A951" s="19"/>
       <c r="B951" s="8"/>
-      <c r="E951" s="10"/>
+      <c r="F951" s="10"/>
     </row>
     <row r="952" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A952" s="19"/>
       <c r="B952" s="8"/>
-      <c r="E952" s="10"/>
+      <c r="F952" s="10"/>
     </row>
     <row r="953" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A953" s="19"/>
       <c r="B953" s="8"/>
-      <c r="E953" s="10"/>
+      <c r="F953" s="10"/>
     </row>
     <row r="954" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A954" s="19"/>
       <c r="B954" s="8"/>
-      <c r="E954" s="10"/>
+      <c r="F954" s="10"/>
     </row>
     <row r="955" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A955" s="19"/>
       <c r="B955" s="8"/>
-      <c r="E955" s="10"/>
+      <c r="F955" s="10"/>
     </row>
     <row r="956" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A956" s="19"/>
       <c r="B956" s="8"/>
-      <c r="E956" s="10"/>
+      <c r="F956" s="10"/>
     </row>
     <row r="957" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A957" s="19"/>
       <c r="B957" s="8"/>
-      <c r="E957" s="10"/>
+      <c r="F957" s="10"/>
     </row>
     <row r="958" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A958" s="19"/>
       <c r="B958" s="8"/>
-      <c r="E958" s="10"/>
+      <c r="F958" s="10"/>
     </row>
     <row r="959" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A959" s="19"/>
       <c r="B959" s="8"/>
-      <c r="E959" s="10"/>
+      <c r="F959" s="10"/>
     </row>
     <row r="960" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A960" s="19"/>
       <c r="B960" s="8"/>
-      <c r="E960" s="10"/>
+      <c r="F960" s="10"/>
     </row>
     <row r="961" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A961" s="19"/>
       <c r="B961" s="8"/>
-      <c r="E961" s="10"/>
+      <c r="F961" s="10"/>
     </row>
     <row r="962" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A962" s="19"/>
       <c r="B962" s="8"/>
-      <c r="E962" s="10"/>
+      <c r="F962" s="10"/>
     </row>
     <row r="963" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A963" s="19"/>
       <c r="B963" s="8"/>
-      <c r="E963" s="10"/>
+      <c r="F963" s="10"/>
     </row>
     <row r="964" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A964" s="19"/>
       <c r="B964" s="8"/>
-      <c r="E964" s="10"/>
+      <c r="F964" s="10"/>
     </row>
     <row r="965" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A965" s="19"/>
       <c r="B965" s="8"/>
-      <c r="E965" s="10"/>
+      <c r="F965" s="10"/>
     </row>
     <row r="966" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A966" s="19"/>
       <c r="B966" s="8"/>
-      <c r="E966" s="10"/>
+      <c r="F966" s="10"/>
     </row>
     <row r="967" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A967" s="19"/>
       <c r="B967" s="8"/>
-      <c r="E967" s="10"/>
+      <c r="F967" s="10"/>
     </row>
     <row r="968" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A968" s="19"/>
       <c r="B968" s="8"/>
-      <c r="E968" s="10"/>
+      <c r="F968" s="10"/>
     </row>
     <row r="969" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A969" s="19"/>
       <c r="B969" s="8"/>
-      <c r="E969" s="10"/>
+      <c r="F969" s="10"/>
     </row>
     <row r="970" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A970" s="19"/>
       <c r="B970" s="8"/>
-      <c r="E970" s="10"/>
+      <c r="F970" s="10"/>
     </row>
     <row r="971" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A971" s="19"/>
       <c r="B971" s="8"/>
-      <c r="E971" s="10"/>
+      <c r="F971" s="10"/>
     </row>
     <row r="972" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A972" s="19"/>
       <c r="B972" s="8"/>
-      <c r="E972" s="10"/>
+      <c r="F972" s="10"/>
     </row>
     <row r="973" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A973" s="19"/>
       <c r="B973" s="8"/>
-      <c r="E973" s="10"/>
+      <c r="F973" s="10"/>
     </row>
     <row r="974" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A974" s="19"/>
       <c r="B974" s="8"/>
-      <c r="E974" s="10"/>
+      <c r="F974" s="10"/>
     </row>
     <row r="975" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A975" s="19"/>
       <c r="B975" s="8"/>
-      <c r="E975" s="10"/>
+      <c r="F975" s="10"/>
     </row>
     <row r="976" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A976" s="19"/>
       <c r="B976" s="8"/>
-      <c r="E976" s="10"/>
+      <c r="F976" s="10"/>
     </row>
     <row r="977" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A977" s="19"/>
       <c r="B977" s="8"/>
-      <c r="E977" s="10"/>
+      <c r="F977" s="10"/>
     </row>
     <row r="978" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A978" s="19"/>
       <c r="B978" s="8"/>
-      <c r="E978" s="10"/>
+      <c r="F978" s="10"/>
     </row>
     <row r="979" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A979" s="19"/>
       <c r="B979" s="8"/>
-      <c r="E979" s="10"/>
+      <c r="F979" s="10"/>
     </row>
     <row r="980" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A980" s="19"/>
       <c r="B980" s="8"/>
-      <c r="E980" s="10"/>
+      <c r="F980" s="10"/>
     </row>
     <row r="981" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A981" s="19"/>
       <c r="B981" s="8"/>
-      <c r="E981" s="10"/>
+      <c r="F981" s="10"/>
     </row>
     <row r="982" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A982" s="19"/>
       <c r="B982" s="8"/>
-      <c r="E982" s="10"/>
+      <c r="F982" s="10"/>
     </row>
     <row r="983" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A983" s="19"/>
       <c r="B983" s="8"/>
-      <c r="E983" s="10"/>
+      <c r="F983" s="10"/>
     </row>
     <row r="984" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A984" s="19"/>
       <c r="B984" s="8"/>
-      <c r="E984" s="10"/>
+      <c r="F984" s="10"/>
     </row>
     <row r="985" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A985" s="19"/>
       <c r="B985" s="8"/>
-      <c r="E985" s="10"/>
+      <c r="F985" s="10"/>
     </row>
     <row r="986" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A986" s="19"/>
       <c r="B986" s="8"/>
-      <c r="E986" s="10"/>
+      <c r="F986" s="10"/>
     </row>
     <row r="987" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A987" s="19"/>
       <c r="B987" s="8"/>
-      <c r="E987" s="10"/>
+      <c r="F987" s="10"/>
     </row>
     <row r="988" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A988" s="19"/>
       <c r="B988" s="8"/>
-      <c r="E988" s="10"/>
+      <c r="F988" s="10"/>
     </row>
     <row r="989" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A989" s="19"/>
       <c r="B989" s="8"/>
-      <c r="E989" s="10"/>
+      <c r="F989" s="10"/>
     </row>
     <row r="990" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A990" s="19"/>
       <c r="B990" s="8"/>
-      <c r="E990" s="10"/>
+      <c r="F990" s="10"/>
     </row>
     <row r="991" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A991" s="19"/>
       <c r="B991" s="8"/>
-      <c r="E991" s="10"/>
+      <c r="F991" s="10"/>
     </row>
     <row r="992" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A992" s="19"/>
       <c r="B992" s="8"/>
-      <c r="E992" s="10"/>
+      <c r="F992" s="10"/>
     </row>
     <row r="993" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A993" s="19"/>
       <c r="B993" s="8"/>
-      <c r="E993" s="10"/>
+      <c r="F993" s="10"/>
     </row>
     <row r="994" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A994" s="19"/>
       <c r="B994" s="8"/>
-      <c r="E994" s="10"/>
+      <c r="F994" s="10"/>
     </row>
     <row r="995" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A995" s="19"/>
       <c r="B995" s="8"/>
-      <c r="E995" s="10"/>
+      <c r="F995" s="10"/>
     </row>
     <row r="996" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A996" s="19"/>
       <c r="B996" s="8"/>
-      <c r="E996" s="10"/>
+      <c r="F996" s="10"/>
     </row>
     <row r="997" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A997" s="19"/>
       <c r="B997" s="8"/>
-      <c r="E997" s="10"/>
+      <c r="F997" s="10"/>
     </row>
     <row r="998" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A998" s="19"/>
       <c r="B998" s="8"/>
-      <c r="E998" s="10"/>
+      <c r="F998" s="10"/>
     </row>
     <row r="999" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A999" s="19"/>
       <c r="B999" s="8"/>
-      <c r="E999" s="10"/>
+      <c r="F999" s="10"/>
     </row>
     <row r="1000" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1000" s="19"/>
       <c r="B1000" s="8"/>
-      <c r="E1000" s="10"/>
+      <c r="F1000" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H58"/>
+  <autoFilter ref="A1:I58"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6076,6 +6163,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>